--- a/data/hotels_by_city/Houston/Houston_shard_367.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_367.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="310">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56855-d10755973-Reviews-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
   </si>
   <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Home2-Suites-By-Hilton-Houston-Webster.h16053885.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,817 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r602820054-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>56855</t>
+  </si>
+  <si>
+    <t>10755973</t>
+  </si>
+  <si>
+    <t>602820054</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>H town stay</t>
+  </si>
+  <si>
+    <t>We found Home2 suites to be an extremely pleasant hotel to stay with family. Location was ideal and property was surrounded by multitude of various restaurants. I would definitely come back and stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Gargi D, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded 6 days ago</t>
+  </si>
+  <si>
+    <t>Responded 6 days ago</t>
+  </si>
+  <si>
+    <t>We found Home2 suites to be an extremely pleasant hotel to stay with family. Location was ideal and property was surrounded by multitude of various restaurants. I would definitely come back and stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r597189142-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>597189142</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>Nice stay but did not exceed my expectations</t>
+  </si>
+  <si>
+    <t>Kudos to your front desk person, Alyssa.  She was great at customer service and was very attentive and accomodating.  Hotel was nice, new, and clean and was in a good location with restaurants nearby.  I had a problem with Wifi on my phone which was the same problem I had with the Home 2 Suites in College Station.  Food was ok, not the best.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gargi D, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Kudos to your front desk person, Alyssa.  She was great at customer service and was very attentive and accomodating.  Hotel was nice, new, and clean and was in a good location with restaurants nearby.  I had a problem with Wifi on my phone which was the same problem I had with the Home 2 Suites in College Station.  Food was ok, not the best.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r597177795-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>597177795</t>
+  </si>
+  <si>
+    <t>Hotel was nice, but did not deliver on what was promised</t>
+  </si>
+  <si>
+    <t>This stay was a mixed result.  The room was nice, clean and as expected.  The price was a bit high for what we needed, but not totally out of range.  Although somewhat lacking in variety, the breakfast quality was high.  On the down side, when we made the reservation, they did not tell us there would be a $100 pet fee.  We only found this when we arrived and it was too late to do anything about it.  I feel that they were dishonest not to mention this...and this is the highest fee I have ever paid at a hotel.  Additionally, they promised that we would have two adjoining rooms so our children could be next to us.  When we arrived, this is not what we received and instead had a room down the hall from our kids.  Very disappointing.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>This stay was a mixed result.  The room was nice, clean and as expected.  The price was a bit high for what we needed, but not totally out of range.  Although somewhat lacking in variety, the breakfast quality was high.  On the down side, when we made the reservation, they did not tell us there would be a $100 pet fee.  We only found this when we arrived and it was too late to do anything about it.  I feel that they were dishonest not to mention this...and this is the highest fee I have ever paid at a hotel.  Additionally, they promised that we would have two adjoining rooms so our children could be next to us.  When we arrived, this is not what we received and instead had a room down the hall from our kids.  Very disappointing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r592532837-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>592532837</t>
+  </si>
+  <si>
+    <t>07/02/2018</t>
+  </si>
+  <si>
+    <t>Home2suites Webster TX</t>
+  </si>
+  <si>
+    <t>Excellent maid service. Not a fan of the precooked egg offerings at breakfast, but glad breakfast is offered. Pool and workout room  were closed for maintenance for a few days. Great to have hot plate available for long stay. Shower took a long time to warm up. Super friendly staff!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Gargi D, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded July 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2018</t>
+  </si>
+  <si>
+    <t>Excellent maid service. Not a fan of the precooked egg offerings at breakfast, but glad breakfast is offered. Pool and workout room  were closed for maintenance for a few days. Great to have hot plate available for long stay. Shower took a long time to warm up. Super friendly staff!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r586486738-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>586486738</t>
+  </si>
+  <si>
+    <t>06/10/2018</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>My boyfriend and I recently stayed at your hotel.  We were very impressed with the staff and cleanliness.  We came late and left early so we didn't get much use of the amenities.  However, I loved the shower head that was in our room- 206.  What kind was it?  I want it immediately installed at my home! We will definitely stay again if we have the chance.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Gargi D, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded June 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2018</t>
+  </si>
+  <si>
+    <t>My boyfriend and I recently stayed at your hotel.  We were very impressed with the staff and cleanliness.  We came late and left early so we didn't get much use of the amenities.  However, I loved the shower head that was in our room- 206.  What kind was it?  I want it immediately installed at my home! We will definitely stay again if we have the chance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r584829793-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>584829793</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel</t>
+  </si>
+  <si>
+    <t>I highly suggest this hotel if traveling to this area. Rooms were very nice and extremely clean.  After a long day of traveling and arriving very late we were greeted with a smile and a warm welcome by staff at front desk.  Each employee we came in contact with smiled and asked about our stay.  Didn’t have time to enjoy the pool but area was very nice.  Will stay here again if plans bring us back to this area.  The bed was so comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gargi D, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded June 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2018</t>
+  </si>
+  <si>
+    <t>I highly suggest this hotel if traveling to this area. Rooms were very nice and extremely clean.  After a long day of traveling and arriving very late we were greeted with a smile and a warm welcome by staff at front desk.  Each employee we came in contact with smiled and asked about our stay.  Didn’t have time to enjoy the pool but area was very nice.  Will stay here again if plans bring us back to this area.  The bed was so comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r583720815-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>583720815</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Great place, clean but bed a bit soft</t>
+  </si>
+  <si>
+    <t>Clean and comfortable with very nice staff. Bed a bit soft in that my husband and I kept rolling into one another when we were in the middle of the bed. We are not large people, he’s around 145# and I’m 118#.Otherwise, very close to hospital and many restaurants in area.They do allow pets unfortunately.Also we do use a noise maker so noise was not an issue at night.Great kitchenette with good quality service wear.Breakfast decent. On par for the price of the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Matthew H, General Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded June 6, 2018</t>
+  </si>
+  <si>
+    <t>Clean and comfortable with very nice staff. Bed a bit soft in that my husband and I kept rolling into one another when we were in the middle of the bed. We are not large people, he’s around 145# and I’m 118#.Otherwise, very close to hospital and many restaurants in area.They do allow pets unfortunately.Also we do use a noise maker so noise was not an issue at night.Great kitchenette with good quality service wear.Breakfast decent. On par for the price of the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r583481310-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>583481310</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel to stay in especially if you have a large group of people. There's a complimentary Grill by the pool that is at your use during the hours provided. Accommodations are very homelike and comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Matthew H, General Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded May 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2018</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel to stay in especially if you have a large group of people. There's a complimentary Grill by the pool that is at your use during the hours provided. Accommodations are very homelike and comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r582854923-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>582854923</t>
+  </si>
+  <si>
+    <t>05/26/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice </t>
+  </si>
+  <si>
+    <t>Management is really cool and the service is really great! I'd recommend to anyone. Had a a good stay and awesome city most of all. Ive come from out of town and couldnt believe how awesome htown was. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Management is really cool and the service is really great! I'd recommend to anyone. Had a a good stay and awesome city most of all. Ive come from out of town and couldnt believe how awesome htown was. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r574624144-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>574624144</t>
+  </si>
+  <si>
+    <t>04/20/2018</t>
+  </si>
+  <si>
+    <t>Nice Place!</t>
+  </si>
+  <si>
+    <t>This was our first experience at Home2 Suites and we loved the concept.  We were traveling for pleasure, but my husband had work to do as well and the rooms were set up great for either need.  We felt that the breakfast was above average and the staff was also great to work with.  Beds were very comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Robert M, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded April 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2018</t>
+  </si>
+  <si>
+    <t>This was our first experience at Home2 Suites and we loved the concept.  We were traveling for pleasure, but my husband had work to do as well and the rooms were set up great for either need.  We felt that the breakfast was above average and the staff was also great to work with.  Beds were very comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r574604232-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>574604232</t>
+  </si>
+  <si>
+    <t>You won't be disappointed</t>
+  </si>
+  <si>
+    <t>This was our first time staying at a Home2Suites and it won't be our last. We were very impressed. The employees were extra friendly and helpful. They always had a smile. The hotel always looked very clean. 
+We had a 2 queen and sofa bed room on the 4th floor facing the side parking lot. It was very quiet. The room was fresh, clean and flawless. We loved having a small kitchen with refrigerator, microwave, dishes, etc. This is a major plus when traveling with kids! The room also had lots of storage. We really liked the black-out blinds. It made putting the kids to bed early easy. Another nice touch was the shampoo and body wash dispensers inside the shower. On the flip side, it would have been nice to have a tub for our youngest. We made due.
+The exercise room was in excellent condition. There was a small guest laundry room attached to the exercise room. $0.75 a load for washer or dryer. We used the facility once with no complaints.
+Breakfast took a little getting used to. You had to microwave your entree choice (egg sandwiches, etc.). The breakfast attendant was excellent and always had a smile. She took great care of us and our kids. 
+Much to the dismay of our kids, we didn't get to use the pool. It was too cold.
+Our only complaint would have to be that the shower hot water...This was our first time staying at a Home2Suites and it won't be our last. We were very impressed. The employees were extra friendly and helpful. They always had a smile. The hotel always looked very clean. We had a 2 queen and sofa bed room on the 4th floor facing the side parking lot. It was very quiet. The room was fresh, clean and flawless. We loved having a small kitchen with refrigerator, microwave, dishes, etc. This is a major plus when traveling with kids! The room also had lots of storage. We really liked the black-out blinds. It made putting the kids to bed early easy. Another nice touch was the shampoo and body wash dispensers inside the shower. On the flip side, it would have been nice to have a tub for our youngest. We made due.The exercise room was in excellent condition. There was a small guest laundry room attached to the exercise room. $0.75 a load for washer or dryer. We used the facility once with no complaints.Breakfast took a little getting used to. You had to microwave your entree choice (egg sandwiches, etc.). The breakfast attendant was excellent and always had a smile. She took great care of us and our kids. Much to the dismay of our kids, we didn't get to use the pool. It was too cold.Our only complaint would have to be that the shower hot water was not hot enough. It took forever to heat up and then just seemed luke warm. I would still stay here again despite this small issue.This hotel is located near lots of restaurants and shops. The interstate is a short distance away. The Space Center is about 10-15 minutes away.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was our first time staying at a Home2Suites and it won't be our last. We were very impressed. The employees were extra friendly and helpful. They always had a smile. The hotel always looked very clean. 
+We had a 2 queen and sofa bed room on the 4th floor facing the side parking lot. It was very quiet. The room was fresh, clean and flawless. We loved having a small kitchen with refrigerator, microwave, dishes, etc. This is a major plus when traveling with kids! The room also had lots of storage. We really liked the black-out blinds. It made putting the kids to bed early easy. Another nice touch was the shampoo and body wash dispensers inside the shower. On the flip side, it would have been nice to have a tub for our youngest. We made due.
+The exercise room was in excellent condition. There was a small guest laundry room attached to the exercise room. $0.75 a load for washer or dryer. We used the facility once with no complaints.
+Breakfast took a little getting used to. You had to microwave your entree choice (egg sandwiches, etc.). The breakfast attendant was excellent and always had a smile. She took great care of us and our kids. 
+Much to the dismay of our kids, we didn't get to use the pool. It was too cold.
+Our only complaint would have to be that the shower hot water...This was our first time staying at a Home2Suites and it won't be our last. We were very impressed. The employees were extra friendly and helpful. They always had a smile. The hotel always looked very clean. We had a 2 queen and sofa bed room on the 4th floor facing the side parking lot. It was very quiet. The room was fresh, clean and flawless. We loved having a small kitchen with refrigerator, microwave, dishes, etc. This is a major plus when traveling with kids! The room also had lots of storage. We really liked the black-out blinds. It made putting the kids to bed early easy. Another nice touch was the shampoo and body wash dispensers inside the shower. On the flip side, it would have been nice to have a tub for our youngest. We made due.The exercise room was in excellent condition. There was a small guest laundry room attached to the exercise room. $0.75 a load for washer or dryer. We used the facility once with no complaints.Breakfast took a little getting used to. You had to microwave your entree choice (egg sandwiches, etc.). The breakfast attendant was excellent and always had a smile. She took great care of us and our kids. Much to the dismay of our kids, we didn't get to use the pool. It was too cold.Our only complaint would have to be that the shower hot water was not hot enough. It took forever to heat up and then just seemed luke warm. I would still stay here again despite this small issue.This hotel is located near lots of restaurants and shops. The interstate is a short distance away. The Space Center is about 10-15 minutes away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r574401634-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>574401634</t>
+  </si>
+  <si>
+    <t>04/19/2018</t>
+  </si>
+  <si>
+    <t>Fantastic Hotel</t>
+  </si>
+  <si>
+    <t>This is a wonderful hotel to stay in.  We travel a lot and this was by far the best hotel we have stayed in.  We reserved the separate king bedroom with a sofa sleeper.  We were happily shocked at the amount of space we had.  You can't go wrong staying here.  Great place!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a wonderful hotel to stay in.  We travel a lot and this was by far the best hotel we have stayed in.  We reserved the separate king bedroom with a sofa sleeper.  We were happily shocked at the amount of space we had.  You can't go wrong staying here.  Great place!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r573788984-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>573788984</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Retreat</t>
+  </si>
+  <si>
+    <t>Clean, friendly, they have Everything you could need including a comfortable bed. Pool outdoor grill. Kitchen Complete with dishes silverware. Pots pans coffee maker. The bathroom was quite nice but was only a shower no tub. There was a hair dryer in there. This is a very nice place to stay and would be very comfortable in an extended stayMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Clean, friendly, they have Everything you could need including a comfortable bed. Pool outdoor grill. Kitchen Complete with dishes silverware. Pots pans coffee maker. The bathroom was quite nice but was only a shower no tub. There was a hair dryer in there. This is a very nice place to stay and would be very comfortable in an extended stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r573749555-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>573749555</t>
+  </si>
+  <si>
+    <t>Couldn't ask for more!!!</t>
+  </si>
+  <si>
+    <t>I am from local and very familiar with the area.  I needed a room to house a family of relatives from out of town and found this place.  The hotel was clean, beautiful decor, and the studio room with two queen beds and a sofa-bed we got was big enough for a family of five.  The room pretty much got everything you need: a fridge, microwave, coffee maker, disks, utensils, etc.  The family was so impressed with the place.  They used the poor , and loved the breakfast in the morning as well.  Lexi, our front desk lady, was extra friendly, very accommodating, and very informative, which made the family felt very welcoming.  This is definitely a place to stay if you visit the area.  Newly renovated Baybrook mall is across I-45.  Thanks Home2 Suites, Webster for a job well done.MoreShow less</t>
+  </si>
+  <si>
+    <t>Matthew H, General Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded April 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2018</t>
+  </si>
+  <si>
+    <t>I am from local and very familiar with the area.  I needed a room to house a family of relatives from out of town and found this place.  The hotel was clean, beautiful decor, and the studio room with two queen beds and a sofa-bed we got was big enough for a family of five.  The room pretty much got everything you need: a fridge, microwave, coffee maker, disks, utensils, etc.  The family was so impressed with the place.  They used the poor , and loved the breakfast in the morning as well.  Lexi, our front desk lady, was extra friendly, very accommodating, and very informative, which made the family felt very welcoming.  This is definitely a place to stay if you visit the area.  Newly renovated Baybrook mall is across I-45.  Thanks Home2 Suites, Webster for a job well done.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r570183521-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>570183521</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deserves 10 stars </t>
+  </si>
+  <si>
+    <t>If I can give this hotel 10 stars I would. I just stayed here may 30 thru today April 1 Easter weekend. I loved how the rooms have a micro,sink,fridge,freezer. The best part about this hotel was the fantastic employees there I have stayed in 4 to 5 star hotels and they surpassed them by far. They even got my little ones easter baskets. They made us feel like home. I will definitely be back. Plus breakfast was complimentary and loved the pool with outdoor grill and lighting.MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert M, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2018</t>
+  </si>
+  <si>
+    <t>If I can give this hotel 10 stars I would. I just stayed here may 30 thru today April 1 Easter weekend. I loved how the rooms have a micro,sink,fridge,freezer. The best part about this hotel was the fantastic employees there I have stayed in 4 to 5 star hotels and they surpassed them by far. They even got my little ones easter baskets. They made us feel like home. I will definitely be back. Plus breakfast was complimentary and loved the pool with outdoor grill and lighting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r566855317-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>566855317</t>
+  </si>
+  <si>
+    <t>03/16/2018</t>
+  </si>
+  <si>
+    <t>gret property</t>
+  </si>
+  <si>
+    <t>The property is in excellent condition, staff is very helpful and the property is very clean.  Would recommend this hotel to anyone.  Breakfast left a little to be desired, ( pre-packaged food ) but other than that all was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert M, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded March 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2018</t>
+  </si>
+  <si>
+    <t>The property is in excellent condition, staff is very helpful and the property is very clean.  Would recommend this hotel to anyone.  Breakfast left a little to be desired, ( pre-packaged food ) but other than that all was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r565126108-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>565126108</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t>Overall a great hotel</t>
+  </si>
+  <si>
+    <t>A very nice welcome from the lady at reception (Lacey, I think)The suite which 4 of us shared was huge and very well eqipped. The decoration was simple and tasteful. Breakfast was very tasty. The hot food items were not buffet style, but wrapped items to be heated in the microwave. (Chese and ham biscuits and potato with egg and cheese) Much to my surprise they were very tasty and made for a nice change from the standard scrambled eggs and bacon. Good quality. Great service from the pleasant staff at reception and housekeeping throughout our stay. Very close to the Space Center which we wanted to visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Robert M, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded March 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2018</t>
+  </si>
+  <si>
+    <t>A very nice welcome from the lady at reception (Lacey, I think)The suite which 4 of us shared was huge and very well eqipped. The decoration was simple and tasteful. Breakfast was very tasty. The hot food items were not buffet style, but wrapped items to be heated in the microwave. (Chese and ham biscuits and potato with egg and cheese) Much to my surprise they were very tasty and made for a nice change from the standard scrambled eggs and bacon. Good quality. Great service from the pleasant staff at reception and housekeeping throughout our stay. Very close to the Space Center which we wanted to visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r564129841-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>564129841</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>Best Hotel in Webster!</t>
+  </si>
+  <si>
+    <t>I travel weekly for work. I happen to stay here for 6 weeks and truly enjoyed my stay. This hotel is in my top 3! I love this place! The rooms are very clean, the hotel staff are fabulous and the location is great! Lots of restaurants and shopping around and about 30 mins from Hobby Airport. I have a favorite room here! Won’t be disappointed!MoreShow less</t>
+  </si>
+  <si>
+    <t>Matthew H, General Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded March 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2018</t>
+  </si>
+  <si>
+    <t>I travel weekly for work. I happen to stay here for 6 weeks and truly enjoyed my stay. This hotel is in my top 3! I love this place! The rooms are very clean, the hotel staff are fabulous and the location is great! Lots of restaurants and shopping around and about 30 mins from Hobby Airport. I have a favorite room here! Won’t be disappointed!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r559691003-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>559691003</t>
+  </si>
+  <si>
+    <t>02/10/2018</t>
+  </si>
+  <si>
+    <t>Great rooms, good location for shopping and Interstate access</t>
+  </si>
+  <si>
+    <t>Traveled with college students to attend a conference. Large rooms, new and fresh hotel decor, excellent breakfast and 24 h coffee and tea. Outside seating areas and overall quiet location added to the good value. Rooms have a seating area and plenty of space.MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert M, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded February 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2018</t>
+  </si>
+  <si>
+    <t>Traveled with college students to attend a conference. Large rooms, new and fresh hotel decor, excellent breakfast and 24 h coffee and tea. Outside seating areas and overall quiet location added to the good value. Rooms have a seating area and plenty of space.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r559053391-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>559053391</t>
+  </si>
+  <si>
+    <t>02/07/2018</t>
+  </si>
+  <si>
+    <t>New hotel- excellent stay</t>
+  </si>
+  <si>
+    <t>This is a newer property. Everything is pristine condition. The property has nice lighting throughout. All the amenities of Home. The customer service was excellent and I will surely be back. They were very helpful and friendly. The gym is small but is packed with lots of choices. The outdoor sitting area by the fire pit is very roomy and comfortable on a nice evening. MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert M, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded February 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2018</t>
+  </si>
+  <si>
+    <t>This is a newer property. Everything is pristine condition. The property has nice lighting throughout. All the amenities of Home. The customer service was excellent and I will surely be back. They were very helpful and friendly. The gym is small but is packed with lots of choices. The outdoor sitting area by the fire pit is very roomy and comfortable on a nice evening. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r555052784-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>555052784</t>
+  </si>
+  <si>
+    <t>01/20/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review </t>
+  </si>
+  <si>
+    <t>Friendly, clean, good amenities. Wish they had more heart healthy food for breakfast. Encourage them to keep their new egg white omelette . Nice gym and laundry facilities. Computer maintenance in Business Center could be improved. Good parking. Close to restaurants, malls and freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Robert M, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded January 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2018</t>
+  </si>
+  <si>
+    <t>Friendly, clean, good amenities. Wish they had more heart healthy food for breakfast. Encourage them to keep their new egg white omelette . Nice gym and laundry facilities. Computer maintenance in Business Center could be improved. Good parking. Close to restaurants, malls and freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r551400614-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>551400614</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>Hilton Redeemed!</t>
+  </si>
+  <si>
+    <t>We picked this Hotel for it's location and for it's suite with kitchen. We were very comfortable, kitchen was perfect and the size of the room with storage was great. Staff was friendly and hotel was clean. After a bad experience at another Hilton the previous year, I am happy we had a great one at this location. Only con was the breakfast options were slim. But we'd stay here again if needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Robert M, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded January 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2018</t>
+  </si>
+  <si>
+    <t>We picked this Hotel for it's location and for it's suite with kitchen. We were very comfortable, kitchen was perfect and the size of the room with storage was great. Staff was friendly and hotel was clean. After a bad experience at another Hilton the previous year, I am happy we had a great one at this location. Only con was the breakfast options were slim. But we'd stay here again if needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r551400610-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>551400610</t>
+  </si>
+  <si>
+    <t>Modern</t>
+  </si>
+  <si>
+    <t>First time staying in Home2 Suites. Impressed with modern look of furniture and amenities.  One issue with DirecTV but everything else was great.  Breakfast was healthy and plentiful. Looking forward in staying again.MoreShow less</t>
+  </si>
+  <si>
+    <t>First time staying in Home2 Suites. Impressed with modern look of furniture and amenities.  One issue with DirecTV but everything else was great.  Breakfast was healthy and plentiful. Looking forward in staying again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r549270755-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>549270755</t>
+  </si>
+  <si>
+    <t>12/26/2017</t>
+  </si>
+  <si>
+    <t>Comfortable suite for extended stays.</t>
+  </si>
+  <si>
+    <t>This place was excellent.  Clean, comfortable, close to work, attentive and courteous staff.  Delicious breakfast. The suites are large and include almost a standard size fridge and a dishwasher with dishes, silverware.  No cooktop but you can request a portable one from the front desk.  Overall a very nice hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Matthew H, General Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded December 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2017</t>
+  </si>
+  <si>
+    <t>This place was excellent.  Clean, comfortable, close to work, attentive and courteous staff.  Delicious breakfast. The suites are large and include almost a standard size fridge and a dishwasher with dishes, silverware.  No cooktop but you can request a portable one from the front desk.  Overall a very nice hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r543262669-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>543262669</t>
+  </si>
+  <si>
+    <t>11/25/2017</t>
+  </si>
+  <si>
+    <t>30 day</t>
+  </si>
+  <si>
+    <t>Had a great experience staying at the hotel staff was super friendly and nice.  The rooms were very roomy and beds were excellent.  The staff made us feel right t home.  Great people there. Praying for the people of Houston MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Robert M, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded December 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2017</t>
+  </si>
+  <si>
+    <t>Had a great experience staying at the hotel staff was super friendly and nice.  The rooms were very roomy and beds were excellent.  The staff made us feel right t home.  Great people there. Praying for the people of Houston More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r542360148-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>542360148</t>
+  </si>
+  <si>
+    <t>11/20/2017</t>
+  </si>
+  <si>
+    <t>Webster Home2</t>
+  </si>
+  <si>
+    <t>As I mentioned early, excellent hotel. As a family,we LOVE the Home2 concept and amenities. Great value and it's so nice to go away but be able to stock a fridge with juice, snacks, whatever and have plates and glasses at your disposal. We all agree that this brand will be our first choice for any future family vacations.  BUT.. as I noted in my earlier comments, the noise from being placed in a room 2 doors away from the lobby/breakfast area was very loud between 7-10am. A sound barrier or door should be in place. Several large groups of employees stayed there and made a significant amount of noise during a breakfast meeting, including a round of clapping!!  As a Hilton member, I would have expected a better room location and attempted to choose my room during online check-in, 24hrs in advance. That feature was offered but was not available for this hotel.  I now know to make sure I get a different location of room when I confirm my reservation in the future and not wait for check in.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>As I mentioned early, excellent hotel. As a family,we LOVE the Home2 concept and amenities. Great value and it's so nice to go away but be able to stock a fridge with juice, snacks, whatever and have plates and glasses at your disposal. We all agree that this brand will be our first choice for any future family vacations.  BUT.. as I noted in my earlier comments, the noise from being placed in a room 2 doors away from the lobby/breakfast area was very loud between 7-10am. A sound barrier or door should be in place. Several large groups of employees stayed there and made a significant amount of noise during a breakfast meeting, including a round of clapping!!  As a Hilton member, I would have expected a better room location and attempted to choose my room during online check-in, 24hrs in advance. That feature was offered but was not available for this hotel.  I now know to make sure I get a different location of room when I confirm my reservation in the future and not wait for check in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r542361202-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>542361202</t>
+  </si>
+  <si>
+    <t>11/19/2017</t>
+  </si>
+  <si>
+    <t>Nicest Staff Ever</t>
+  </si>
+  <si>
+    <t>Stayed here for 26 days.  The greeting staff and those working the complimentary breakfast in the mornings were the friendlies most helpful people you will meet at a Hotel.  The manager was also, very nice.  The rooms were roomy and clean, and the price was right!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for 26 days.  The greeting staff and those working the complimentary breakfast in the mornings were the friendlies most helpful people you will meet at a Hotel.  The manager was also, very nice.  The rooms were roomy and clean, and the price was right!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r538004559-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>538004559</t>
+  </si>
+  <si>
+    <t>11/01/2017</t>
+  </si>
+  <si>
+    <t>No disappointment here</t>
+  </si>
+  <si>
+    <t>VERY nice .. almost a full kitchen with dishes, silverware, etc. .. enough to be able to stay there and cook with .  Nice shower, nice room ... VERY well worth the money and stay.  Would recommend this place to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert M, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded November 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2017</t>
+  </si>
+  <si>
+    <t>VERY nice .. almost a full kitchen with dishes, silverware, etc. .. enough to be able to stay there and cook with .  Nice shower, nice room ... VERY well worth the money and stay.  Would recommend this place to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r536729498-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>536729498</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>Get away</t>
+  </si>
+  <si>
+    <t>Customer service representives were very friendly.  CLEAN  room and comfortable bed!! Hot and delicious  breakfast!!The hotel in Webster  had many places to eat and to have fun. Love the pool. I recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Customer service representives were very friendly.  CLEAN  room and comfortable bed!! Hot and delicious  breakfast!!The hotel in Webster  had many places to eat and to have fun. Love the pool. I recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r534901618-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>534901618</t>
+  </si>
+  <si>
+    <t>10/21/2017</t>
+  </si>
+  <si>
+    <t>Outstanding Customer Serivice</t>
+  </si>
+  <si>
+    <t>I am blown away by the professionalism and courtesy of this hotel staff.  My room is clean, the breakfast is great, but the interaction with the front Desk Staff is amazing.  Lexi brings a smile and so much positive energy to the hotel.  Everyone loves her and I even see customers hugging her before they leave.  Matt the Manager must be doing something very good to have such happy employees.  As a first responder, I am on the road alot and have stayed at many different hotels, but Home 2 Suites Webster is one of the best.  Thanks to all the employees for making my stay so pleasant and comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am blown away by the professionalism and courtesy of this hotel staff.  My room is clean, the breakfast is great, but the interaction with the front Desk Staff is amazing.  Lexi brings a smile and so much positive energy to the hotel.  Everyone loves her and I even see customers hugging her before they leave.  Matt the Manager must be doing something very good to have such happy employees.  As a first responder, I am on the road alot and have stayed at many different hotels, but Home 2 Suites Webster is one of the best.  Thanks to all the employees for making my stay so pleasant and comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r528836387-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>528836387</t>
+  </si>
+  <si>
+    <t>10/01/2017</t>
+  </si>
+  <si>
+    <t>Lied To, Denied Available Room, &amp; No Apology</t>
+  </si>
+  <si>
+    <t>I've stayed here before and really liked the hotel, so when I got there and realized that I had made reservations at another hotel, the wrong Hotel, I was devastated. I asked the hotel clerk if there were any rooms available and without checking the computer she looked me in my eyes and said no. I walked out to my car, got online, and was able to reserve a room moments after being denied. I returned to the same Clerk where she told me the same thing, that the hotel was booked, insinuating that I did not have a reservation or a room  even though I was showing her my confirmation number. There was no apology. And when I finally did get my room, the TV was on the wrong input for some reason and I could not figure out how to change it. I called the front desk multiple times but received no answer. I had to go back downstairs where I was given a list of instructions as to how to fix the TV. I personally felt like someone else should have come to my room to assist me. I love this hotel chain but this was definitely my worst experience, not to mention the toilet seat was positioned unevenly so it did not sit on the toilet properly, making it impossible to comfortably use the restroom.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Robert M, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2017</t>
+  </si>
+  <si>
+    <t>I've stayed here before and really liked the hotel, so when I got there and realized that I had made reservations at another hotel, the wrong Hotel, I was devastated. I asked the hotel clerk if there were any rooms available and without checking the computer she looked me in my eyes and said no. I walked out to my car, got online, and was able to reserve a room moments after being denied. I returned to the same Clerk where she told me the same thing, that the hotel was booked, insinuating that I did not have a reservation or a room  even though I was showing her my confirmation number. There was no apology. And when I finally did get my room, the TV was on the wrong input for some reason and I could not figure out how to change it. I called the front desk multiple times but received no answer. I had to go back downstairs where I was given a list of instructions as to how to fix the TV. I personally felt like someone else should have come to my room to assist me. I love this hotel chain but this was definitely my worst experience, not to mention the toilet seat was positioned unevenly so it did not sit on the toilet properly, making it impossible to comfortably use the restroom.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r527733756-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>527733756</t>
+  </si>
+  <si>
+    <t>09/26/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel, great location</t>
+  </si>
+  <si>
+    <t>This hotel was brand new. Rooms were clean and bright and the staff was exceptional. This is a great location with several restaurants and Baybridge Mall in close proximity. I was working in Beaumont but due to the lack of (decent) accommodations in the area, I stayed here and drove back and forth. It was well worth the drive.MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert M, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded September 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2017</t>
+  </si>
+  <si>
+    <t>This hotel was brand new. Rooms were clean and bright and the staff was exceptional. This is a great location with several restaurants and Baybridge Mall in close proximity. I was working in Beaumont but due to the lack of (decent) accommodations in the area, I stayed here and drove back and forth. It was well worth the drive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r525905427-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>525905427</t>
+  </si>
+  <si>
+    <t>09/19/2017</t>
+  </si>
+  <si>
+    <t>Hotel Nice, but newly open and still need Customer Service Improvements</t>
+  </si>
+  <si>
+    <t>Rooms were nice, hotel was brand new.  Pool is very nice.  Staff are having problems it appears.  Could not get billing right, could not explain charges on CC, said they issued a credit which never showed up.  Be careful staying here until they get themselves in order- just opened a month ago when we stayed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert M, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded September 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2017</t>
+  </si>
+  <si>
+    <t>Rooms were nice, hotel was brand new.  Pool is very nice.  Staff are having problems it appears.  Could not get billing right, could not explain charges on CC, said they issued a credit which never showed up.  Be careful staying here until they get themselves in order- just opened a month ago when we stayed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r513534836-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>513534836</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>Very hospitable staff, nice and comfortable stay , very spacious and clean room.. enjoyed my stay . Amenities were great, including fitness center and pool.. very friendly environment with families travelling with kidsMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Matthew H, General Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded September 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2017</t>
+  </si>
+  <si>
+    <t>Very hospitable staff, nice and comfortable stay , very spacious and clean room.. enjoyed my stay . Amenities were great, including fitness center and pool.. very friendly environment with families travelling with kidsMore</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1349,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1381,2385 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>85</v>
+      </c>
+      <c r="X6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>93</v>
+      </c>
+      <c r="X7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>110</v>
+      </c>
+      <c r="X9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>118</v>
+      </c>
+      <c r="O10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>103</v>
+      </c>
+      <c r="X10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>125</v>
+      </c>
+      <c r="O11" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>126</v>
+      </c>
+      <c r="X11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" t="s">
+        <v>102</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>126</v>
+      </c>
+      <c r="X12" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>126</v>
+      </c>
+      <c r="X13" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" t="s">
+        <v>144</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>125</v>
+      </c>
+      <c r="O14" t="s">
+        <v>145</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>126</v>
+      </c>
+      <c r="X14" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15" t="s">
+        <v>150</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>125</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>151</v>
+      </c>
+      <c r="X15" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" t="s">
+        <v>158</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>125</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>159</v>
+      </c>
+      <c r="X16" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" t="s">
+        <v>165</v>
+      </c>
+      <c r="L17" t="s">
+        <v>166</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>118</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>167</v>
+      </c>
+      <c r="X17" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>171</v>
+      </c>
+      <c r="J18" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" t="s">
+        <v>173</v>
+      </c>
+      <c r="L18" t="s">
+        <v>174</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>175</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>176</v>
+      </c>
+      <c r="X18" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>180</v>
+      </c>
+      <c r="J19" t="s">
+        <v>181</v>
+      </c>
+      <c r="K19" t="s">
+        <v>182</v>
+      </c>
+      <c r="L19" t="s">
+        <v>183</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>175</v>
+      </c>
+      <c r="O19" t="s">
+        <v>102</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>184</v>
+      </c>
+      <c r="X19" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" t="s">
+        <v>189</v>
+      </c>
+      <c r="K20" t="s">
+        <v>190</v>
+      </c>
+      <c r="L20" t="s">
+        <v>191</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>175</v>
+      </c>
+      <c r="O20" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>192</v>
+      </c>
+      <c r="X20" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J21" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" t="s">
+        <v>198</v>
+      </c>
+      <c r="L21" t="s">
+        <v>199</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>175</v>
+      </c>
+      <c r="O21" t="s">
+        <v>102</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>200</v>
+      </c>
+      <c r="X21" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>204</v>
+      </c>
+      <c r="J22" t="s">
+        <v>205</v>
+      </c>
+      <c r="K22" t="s">
+        <v>206</v>
+      </c>
+      <c r="L22" t="s">
+        <v>207</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>208</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>209</v>
+      </c>
+      <c r="X22" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" t="s">
+        <v>214</v>
+      </c>
+      <c r="K23" t="s">
+        <v>215</v>
+      </c>
+      <c r="L23" t="s">
+        <v>216</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>217</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>218</v>
+      </c>
+      <c r="X23" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>221</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>222</v>
+      </c>
+      <c r="J24" t="s">
+        <v>214</v>
+      </c>
+      <c r="K24" t="s">
+        <v>223</v>
+      </c>
+      <c r="L24" t="s">
+        <v>224</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>217</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>218</v>
+      </c>
+      <c r="X24" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>227</v>
+      </c>
+      <c r="J25" t="s">
+        <v>228</v>
+      </c>
+      <c r="K25" t="s">
+        <v>229</v>
+      </c>
+      <c r="L25" t="s">
+        <v>230</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>217</v>
+      </c>
+      <c r="O25" t="s">
+        <v>102</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>231</v>
+      </c>
+      <c r="X25" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>234</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>235</v>
+      </c>
+      <c r="J26" t="s">
+        <v>236</v>
+      </c>
+      <c r="K26" t="s">
+        <v>237</v>
+      </c>
+      <c r="L26" t="s">
+        <v>238</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>239</v>
+      </c>
+      <c r="O26" t="s">
+        <v>102</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>240</v>
+      </c>
+      <c r="X26" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>244</v>
+      </c>
+      <c r="J27" t="s">
+        <v>245</v>
+      </c>
+      <c r="K27" t="s">
+        <v>246</v>
+      </c>
+      <c r="L27" t="s">
+        <v>247</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>248</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>240</v>
+      </c>
+      <c r="X27" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>250</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>251</v>
+      </c>
+      <c r="J28" t="s">
+        <v>252</v>
+      </c>
+      <c r="K28" t="s">
+        <v>253</v>
+      </c>
+      <c r="L28" t="s">
+        <v>254</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>248</v>
+      </c>
+      <c r="O28" t="s">
+        <v>102</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>240</v>
+      </c>
+      <c r="X28" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>256</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>257</v>
+      </c>
+      <c r="J29" t="s">
+        <v>258</v>
+      </c>
+      <c r="K29" t="s">
+        <v>259</v>
+      </c>
+      <c r="L29" t="s">
+        <v>260</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>239</v>
+      </c>
+      <c r="O29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>261</v>
+      </c>
+      <c r="X29" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>264</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>265</v>
+      </c>
+      <c r="J30" t="s">
+        <v>266</v>
+      </c>
+      <c r="K30" t="s">
+        <v>267</v>
+      </c>
+      <c r="L30" t="s">
+        <v>268</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>239</v>
+      </c>
+      <c r="O30" t="s">
+        <v>84</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>261</v>
+      </c>
+      <c r="X30" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>270</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>271</v>
+      </c>
+      <c r="J31" t="s">
+        <v>272</v>
+      </c>
+      <c r="K31" t="s">
+        <v>273</v>
+      </c>
+      <c r="L31" t="s">
+        <v>274</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>239</v>
+      </c>
+      <c r="O31" t="s">
+        <v>102</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>261</v>
+      </c>
+      <c r="X31" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>276</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>277</v>
+      </c>
+      <c r="J32" t="s">
+        <v>278</v>
+      </c>
+      <c r="K32" t="s">
+        <v>279</v>
+      </c>
+      <c r="L32" t="s">
+        <v>280</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>281</v>
+      </c>
+      <c r="O32" t="s">
+        <v>75</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>282</v>
+      </c>
+      <c r="X32" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>285</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>286</v>
+      </c>
+      <c r="J33" t="s">
+        <v>287</v>
+      </c>
+      <c r="K33" t="s">
+        <v>288</v>
+      </c>
+      <c r="L33" t="s">
+        <v>289</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>281</v>
+      </c>
+      <c r="O33" t="s">
+        <v>102</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>290</v>
+      </c>
+      <c r="X33" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>293</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>294</v>
+      </c>
+      <c r="J34" t="s">
+        <v>295</v>
+      </c>
+      <c r="K34" t="s">
+        <v>296</v>
+      </c>
+      <c r="L34" t="s">
+        <v>297</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>281</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>298</v>
+      </c>
+      <c r="X34" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>301</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>302</v>
+      </c>
+      <c r="J35" t="s">
+        <v>303</v>
+      </c>
+      <c r="K35" t="s">
+        <v>304</v>
+      </c>
+      <c r="L35" t="s">
+        <v>305</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>306</v>
+      </c>
+      <c r="O35" t="s">
+        <v>102</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>307</v>
+      </c>
+      <c r="X35" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_367.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_367.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="495">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,130 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/11/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r612408194-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>56855</t>
+  </si>
+  <si>
+    <t>10755973</t>
+  </si>
+  <si>
+    <t>612408194</t>
+  </si>
+  <si>
+    <t>08/30/2018</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>I'm very particular about hotels and this one meets the standard. I have zero complaints. The entire staff really strives to ensure all guests regardless of member status or length of stay are happy and enjoy their time at the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Gargi D, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded 5 days ago</t>
+  </si>
+  <si>
+    <t>Responded 5 days ago</t>
+  </si>
+  <si>
+    <t>I'm very particular about hotels and this one meets the standard. I have zero complaints. The entire staff really strives to ensure all guests regardless of member status or length of stay are happy and enjoy their time at the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r603085902-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>603085902</t>
+  </si>
+  <si>
+    <t>08/05/2018</t>
+  </si>
+  <si>
+    <t>Great hotel and staff</t>
+  </si>
+  <si>
+    <t>We stayed at this location for a quick weekend trip to Schlitterbahn and TopGolf. We absolutely LOVED this property. It was in a perfect location near many restaurants and the mall. The hotel was clean and the room was huge! We were very pleased with our stay. We have definitely found a new home when visiting the area!! When we arrived at the hotel, the staff greeted us with big welcoming smiles.  We arrived early, around 9:30am, and they happily accommodated us with an available room. We were very grateful to drop off our luggage and start our vacation. Lastly and most importantly- The staff was wonderful. The front desk clerk was amazing!!!! She smiled, waved, and spoke to me, everytime she saw me. The lady preparing breakfast was so helpful. She was constantly replenishing items and talking with guests. We will be back - thanks for a great stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>Gargi D, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>We stayed at this location for a quick weekend trip to Schlitterbahn and TopGolf. We absolutely LOVED this property. It was in a perfect location near many restaurants and the mall. The hotel was clean and the room was huge! We were very pleased with our stay. We have definitely found a new home when visiting the area!! When we arrived at the hotel, the staff greeted us with big welcoming smiles.  We arrived early, around 9:30am, and they happily accommodated us with an available room. We were very grateful to drop off our luggage and start our vacation. Lastly and most importantly- The staff was wonderful. The front desk clerk was amazing!!!! She smiled, waved, and spoke to me, everytime she saw me. The lady preparing breakfast was so helpful. She was constantly replenishing items and talking with guests. We will be back - thanks for a great stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r608047564-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>608047564</t>
+  </si>
+  <si>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>Ikea meets Hilton</t>
+  </si>
+  <si>
+    <t>Stayed one night during the week.  Hotel is new and everything was clean and fresh. 
+The room furnishings and layout seemed very IKEA to me.  it was all nice, but if you have been to IKEA, you will know what I mean.  The furniture, roll around office chair, roll around desk, lots of square shelving and a privacy curtain that separates the beds from the couch were all interesting and different.  
+The room had a lot of light, seemed open and would be okay for a longer stay.  Thumbs up to Hilton for trying something new. 
+The room also had the standard refrigerator, microwave, Keurig, etc.  Bathroom was nice with large shower.  This hotel uses the gel/shampoo dispenser in the shower, so plan ahead if you want something different. 
+Our only area worth comment was breakfast.  The layout of the area in combined with the front desk/business center/main hallway and can get a little busy.   The food area had the typical cereal, toast, waffle set up that most hotels have,  But the eggs/sausage crowd will be disappointed to know that was prepackaged in little sealed bowls.  You went and picked up a bowl, put it in the microwave, pealed the lid and ate your eggs, sausage, etc.   This seemed very cheap and not well thought out.  I get the costs savings for the hotel... but wow.   
+The location is great.  We did the NASA thing, but any kind of food...Stayed one night during the week.  Hotel is new and everything was clean and fresh. The room furnishings and layout seemed very IKEA to me.  it was all nice, but if you have been to IKEA, you will know what I mean.  The furniture, roll around office chair, roll around desk, lots of square shelving and a privacy curtain that separates the beds from the couch were all interesting and different.  The room had a lot of light, seemed open and would be okay for a longer stay.  Thumbs up to Hilton for trying something new. The room also had the standard refrigerator, microwave, Keurig, etc.  Bathroom was nice with large shower.  This hotel uses the gel/shampoo dispenser in the shower, so plan ahead if you want something different. Our only area worth comment was breakfast.  The layout of the area in combined with the front desk/business center/main hallway and can get a little busy.   The food area had the typical cereal, toast, waffle set up that most hotels have,  But the eggs/sausage crowd will be disappointed to know that was prepackaged in little sealed bowls.  You went and picked up a bowl, put it in the microwave, pealed the lid and ate your eggs, sausage, etc.   This seemed very cheap and not well thought out.  I get the costs savings for the hotel... but wow.   The location is great.  We did the NASA thing, but any kind of food is nearby, highway close, etc.  We would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gargi D, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Stayed one night during the week.  Hotel is new and everything was clean and fresh. 
+The room furnishings and layout seemed very IKEA to me.  it was all nice, but if you have been to IKEA, you will know what I mean.  The furniture, roll around office chair, roll around desk, lots of square shelving and a privacy curtain that separates the beds from the couch were all interesting and different.  
+The room had a lot of light, seemed open and would be okay for a longer stay.  Thumbs up to Hilton for trying something new. 
+The room also had the standard refrigerator, microwave, Keurig, etc.  Bathroom was nice with large shower.  This hotel uses the gel/shampoo dispenser in the shower, so plan ahead if you want something different. 
+Our only area worth comment was breakfast.  The layout of the area in combined with the front desk/business center/main hallway and can get a little busy.   The food area had the typical cereal, toast, waffle set up that most hotels have,  But the eggs/sausage crowd will be disappointed to know that was prepackaged in little sealed bowls.  You went and picked up a bowl, put it in the microwave, pealed the lid and ate your eggs, sausage, etc.   This seemed very cheap and not well thought out.  I get the costs savings for the hotel... but wow.   
+The location is great.  We did the NASA thing, but any kind of food...Stayed one night during the week.  Hotel is new and everything was clean and fresh. The room furnishings and layout seemed very IKEA to me.  it was all nice, but if you have been to IKEA, you will know what I mean.  The furniture, roll around office chair, roll around desk, lots of square shelving and a privacy curtain that separates the beds from the couch were all interesting and different.  The room had a lot of light, seemed open and would be okay for a longer stay.  Thumbs up to Hilton for trying something new. The room also had the standard refrigerator, microwave, Keurig, etc.  Bathroom was nice with large shower.  This hotel uses the gel/shampoo dispenser in the shower, so plan ahead if you want something different. Our only area worth comment was breakfast.  The layout of the area in combined with the front desk/business center/main hallway and can get a little busy.   The food area had the typical cereal, toast, waffle set up that most hotels have,  But the eggs/sausage crowd will be disappointed to know that was prepackaged in little sealed bowls.  You went and picked up a bowl, put it in the microwave, pealed the lid and ate your eggs, sausage, etc.   This seemed very cheap and not well thought out.  I get the costs savings for the hotel... but wow.   The location is great.  We did the NASA thing, but any kind of food is nearby, highway close, etc.  We would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r606076506-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>606076506</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>Enjoyed our short stay</t>
+  </si>
+  <si>
+    <t>We were only here one night but were very pleased. Room was a nice size and very clean although the bathroom was a bit on the small size.  We had a Premium room so there were snacks, juices and pods for the Keurig. There's a nice kitchenette with an apartment sized fridge. The breakfast was good with a decent variety and real plates and silverware! We will look for Home2 Suites in our future travels.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gargi D, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>We were only here one night but were very pleased. Room was a nice size and very clean although the bathroom was a bit on the small size.  We had a Premium room so there were snacks, juices and pods for the Keurig. There's a nice kitchenette with an apartment sized fridge. The breakfast was good with a decent variety and real plates and silverware! We will look for Home2 Suites in our future travels.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r602820054-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
   </si>
   <si>
-    <t>56855</t>
-  </si>
-  <si>
-    <t>10755973</t>
-  </si>
-  <si>
     <t>602820054</t>
   </si>
   <si>
@@ -174,15 +286,6 @@
     <t>July 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Gargi D, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded 6 days ago</t>
-  </si>
-  <si>
-    <t>Responded 6 days ago</t>
-  </si>
-  <si>
     <t>We found Home2 suites to be an extremely pleasant hotel to stay with family. Location was ideal and property was surrounded by multitude of various restaurants. I would definitely come back and stay again.More</t>
   </si>
   <si>
@@ -201,10 +304,10 @@
     <t>Kudos to your front desk person, Alyssa.  She was great at customer service and was very attentive and accomodating.  Hotel was nice, new, and clean and was in a good location with restaurants nearby.  I had a problem with Wifi on my phone which was the same problem I had with the Home 2 Suites in College Station.  Food was ok, not the best.MoreShow less</t>
   </si>
   <si>
-    <t>Gargi D, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded 3 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 3 weeks ago</t>
+    <t>Gargi D, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded July 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2018</t>
   </si>
   <si>
     <t>Kudos to your front desk person, Alyssa.  She was great at customer service and was very attentive and accomodating.  Hotel was nice, new, and clean and was in a good location with restaurants nearby.  I had a problem with Wifi on my phone which was the same problem I had with the Home 2 Suites in College Station.  Food was ok, not the best.More</t>
@@ -228,6 +331,57 @@
     <t>This stay was a mixed result.  The room was nice, clean and as expected.  The price was a bit high for what we needed, but not totally out of range.  Although somewhat lacking in variety, the breakfast quality was high.  On the down side, when we made the reservation, they did not tell us there would be a $100 pet fee.  We only found this when we arrived and it was too late to do anything about it.  I feel that they were dishonest not to mention this...and this is the highest fee I have ever paid at a hotel.  Additionally, they promised that we would have two adjoining rooms so our children could be next to us.  When we arrived, this is not what we received and instead had a room down the hall from our kids.  Very disappointing.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r596711856-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>596711856</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t>Good location but breakfast area needs improving!</t>
+  </si>
+  <si>
+    <t>Stayed here three nights at the end of a road trip from Colorado Springs (via Fort Worth &amp; New Orleans)Plenty of free parking. Staff friendly and welcoming.Room a good size. Clean and tidy, plenty of storage and surface areas. Mini kitchen, large TV with many channels, most in HD. Wi-Fi jus acceptable at around 4.8 mbps up and .8 mbps down. For a new hotel I was very surprised there were no USB charging sockets. Comfy beds.Bathroom small, clean and tidy. Compact counter top but three hooks! Good size shower with good pressure and plenty of hot water when it eventually arrived! Did like the basin though. Great lighting with good size mirror but only a reasonable extractor.Breakfast area is a bit of a mess set around reception, the business area and the lower floor corridor. Seating and tables not ideal for many people, not very well thought out also not a great selection of breakfast foods.Did not use the pool etc, but then they were closed most of the time we were there.The hotel is fairly well situated for all the attractions with a reasonable selection of eateries and shopping mall within easy reach.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Gargi D, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded July 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here three nights at the end of a road trip from Colorado Springs (via Fort Worth &amp; New Orleans)Plenty of free parking. Staff friendly and welcoming.Room a good size. Clean and tidy, plenty of storage and surface areas. Mini kitchen, large TV with many channels, most in HD. Wi-Fi jus acceptable at around 4.8 mbps up and .8 mbps down. For a new hotel I was very surprised there were no USB charging sockets. Comfy beds.Bathroom small, clean and tidy. Compact counter top but three hooks! Good size shower with good pressure and plenty of hot water when it eventually arrived! Did like the basin though. Great lighting with good size mirror but only a reasonable extractor.Breakfast area is a bit of a mess set around reception, the business area and the lower floor corridor. Seating and tables not ideal for many people, not very well thought out also not a great selection of breakfast foods.Did not use the pool etc, but then they were closed most of the time we were there.The hotel is fairly well situated for all the attractions with a reasonable selection of eateries and shopping mall within easy reach.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r592845937-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>592845937</t>
+  </si>
+  <si>
+    <t>07/03/2018</t>
+  </si>
+  <si>
+    <t>Great hotel--clean, wonderful staff.</t>
+  </si>
+  <si>
+    <t>The hotel was seriously detailed as to cleanliness, top to bottom, daily. Wi-fi worked well daily. The staff was uniformly gracious, efficient, kind, and intelligent. (I cannot remember everyone's name who deserves praise, but Guadeloupe made sure breakfast every day was a delight, the maintenance engineer was friendly and helpful, and front desk staff like Lexi, Taje, and ChaChe and several others accepted my lame morning humor with friendly grace.) The MoreShow less</t>
+  </si>
+  <si>
+    <t>Gargi D, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded July 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2018</t>
+  </si>
+  <si>
+    <t>The hotel was seriously detailed as to cleanliness, top to bottom, daily. Wi-fi worked well daily. The staff was uniformly gracious, efficient, kind, and intelligent. (I cannot remember everyone's name who deserves praise, but Guadeloupe made sure breakfast every day was a delight, the maintenance engineer was friendly and helpful, and front desk staff like Lexi, Taje, and ChaChe and several others accepted my lame morning humor with friendly grace.) The More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r592532837-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
   </si>
   <si>
@@ -255,6 +409,30 @@
     <t>Excellent maid service. Not a fan of the precooked egg offerings at breakfast, but glad breakfast is offered. Pool and workout room  were closed for maintenance for a few days. Great to have hot plate available for long stay. Shower took a long time to warm up. Super friendly staff!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r591720601-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>591720601</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel in the heart of the City</t>
+  </si>
+  <si>
+    <t>We decided to stay here on a weekend get away. We normally stay in this area when we are going to go on a cruise so we have tried out a lot of the hotels in the area and this time we decided to try something new. We booked two nights in the premium double queen bed suite. When we got to the hotel we were pleasantly surprised. The hotel was clean and easy to get to. There were nice sitting areas outside and near the check in desk. Frequent travelers know the feeling when they open the room and are amazed at the room behind the door, well this room had that feeling. Our room was a premium room so in addition to the standard coffee the room also had a variety of snacks, soda, juices and candy and they were all included! The room was very large and comfortable. Breakfast was actually relaxing. There was a great adult atmosphere with real cups and plates (like you would have at home). There was an excellent buckwheat waffle and the breakfast had pretty much every topping you can think of. The pool is outside but it is a saltwater pool which was an excellent touch. Then the sleep. I am not sure if it was the location or just really good insulation but there was no road noise. It made for an excellent night sleep. The hotel also has a...We decided to stay here on a weekend get away. We normally stay in this area when we are going to go on a cruise so we have tried out a lot of the hotels in the area and this time we decided to try something new. We booked two nights in the premium double queen bed suite. When we got to the hotel we were pleasantly surprised. The hotel was clean and easy to get to. There were nice sitting areas outside and near the check in desk. Frequent travelers know the feeling when they open the room and are amazed at the room behind the door, well this room had that feeling. Our room was a premium room so in addition to the standard coffee the room also had a variety of snacks, soda, juices and candy and they were all included! The room was very large and comfortable. Breakfast was actually relaxing. There was a great adult atmosphere with real cups and plates (like you would have at home). There was an excellent buckwheat waffle and the breakfast had pretty much every topping you can think of. The pool is outside but it is a saltwater pool which was an excellent touch. Then the sleep. I am not sure if it was the location or just really good insulation but there was no road noise. It made for an excellent night sleep. The hotel also has a great sense of responsibility when it comes to the environment with recycling bins and focusing on reducing waste. The only draw back is you don't get to check in till after 3:30pm, if you can handle this fact you are in for an excellent stay. We were very happy with our stay here and we will definitely be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gargi D, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded July 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2018</t>
+  </si>
+  <si>
+    <t>We decided to stay here on a weekend get away. We normally stay in this area when we are going to go on a cruise so we have tried out a lot of the hotels in the area and this time we decided to try something new. We booked two nights in the premium double queen bed suite. When we got to the hotel we were pleasantly surprised. The hotel was clean and easy to get to. There were nice sitting areas outside and near the check in desk. Frequent travelers know the feeling when they open the room and are amazed at the room behind the door, well this room had that feeling. Our room was a premium room so in addition to the standard coffee the room also had a variety of snacks, soda, juices and candy and they were all included! The room was very large and comfortable. Breakfast was actually relaxing. There was a great adult atmosphere with real cups and plates (like you would have at home). There was an excellent buckwheat waffle and the breakfast had pretty much every topping you can think of. The pool is outside but it is a saltwater pool which was an excellent touch. Then the sleep. I am not sure if it was the location or just really good insulation but there was no road noise. It made for an excellent night sleep. The hotel also has a...We decided to stay here on a weekend get away. We normally stay in this area when we are going to go on a cruise so we have tried out a lot of the hotels in the area and this time we decided to try something new. We booked two nights in the premium double queen bed suite. When we got to the hotel we were pleasantly surprised. The hotel was clean and easy to get to. There were nice sitting areas outside and near the check in desk. Frequent travelers know the feeling when they open the room and are amazed at the room behind the door, well this room had that feeling. Our room was a premium room so in addition to the standard coffee the room also had a variety of snacks, soda, juices and candy and they were all included! The room was very large and comfortable. Breakfast was actually relaxing. There was a great adult atmosphere with real cups and plates (like you would have at home). There was an excellent buckwheat waffle and the breakfast had pretty much every topping you can think of. The pool is outside but it is a saltwater pool which was an excellent touch. Then the sleep. I am not sure if it was the location or just really good insulation but there was no road noise. It made for an excellent night sleep. The hotel also has a great sense of responsibility when it comes to the environment with recycling bins and focusing on reducing waste. The only draw back is you don't get to check in till after 3:30pm, if you can handle this fact you are in for an excellent stay. We were very happy with our stay here and we will definitely be back.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r586486738-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
   </si>
   <si>
@@ -270,9 +448,6 @@
     <t>My boyfriend and I recently stayed at your hotel.  We were very impressed with the staff and cleanliness.  We came late and left early so we didn't get much use of the amenities.  However, I loved the shower head that was in our room- 206.  What kind was it?  I want it immediately installed at my home! We will definitely stay again if we have the chance.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Gargi D, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded June 11, 2018</t>
   </si>
   <si>
@@ -306,6 +481,54 @@
     <t>I highly suggest this hotel if traveling to this area. Rooms were very nice and extremely clean.  After a long day of traveling and arriving very late we were greeted with a smile and a warm welcome by staff at front desk.  Each employee we came in contact with smiled and asked about our stay.  Didn’t have time to enjoy the pool but area was very nice.  Will stay here again if plans bring us back to this area.  The bed was so comfortable.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r584450041-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>584450041</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>Girl trip</t>
+  </si>
+  <si>
+    <t>Three 60 old women had a great time in this hotel. The salt water pool was nice &amp; the breakfast was the best ever! Would recommend this location it is close to Galveston but better prices. The staff is knowable &amp; helpful &amp; very nice. Trip was a success MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Three 60 old women had a great time in this hotel. The salt water pool was nice &amp; the breakfast was the best ever! Would recommend this location it is close to Galveston but better prices. The staff is knowable &amp; helpful &amp; very nice. Trip was a success More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r584158493-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>584158493</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>Will be back!</t>
+  </si>
+  <si>
+    <t>The rooms were very large. Accommodated our number of people with ease. Wonderful counter space! They were also well kept and clean. The ladies at the front desk weee very helpful and pleasant as well. Breakfast variety isn’t great, but it will get the job done. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Matthew H, General Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded June 6, 2018</t>
+  </si>
+  <si>
+    <t>The rooms were very large. Accommodated our number of people with ease. Wonderful counter space! They were also well kept and clean. The ladies at the front desk weee very helpful and pleasant as well. Breakfast variety isn’t great, but it will get the job done. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r583720815-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
   </si>
   <si>
@@ -321,15 +544,6 @@
     <t>Clean and comfortable with very nice staff. Bed a bit soft in that my husband and I kept rolling into one another when we were in the middle of the bed. We are not large people, he’s around 145# and I’m 118#.Otherwise, very close to hospital and many restaurants in area.They do allow pets unfortunately.Also we do use a noise maker so noise was not an issue at night.Great kitchenette with good quality service wear.Breakfast decent. On par for the price of the room.MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Matthew H, General Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded June 6, 2018</t>
-  </si>
-  <si>
     <t>Clean and comfortable with very nice staff. Bed a bit soft in that my husband and I kept rolling into one another when we were in the middle of the bed. We are not large people, he’s around 145# and I’m 118#.Otherwise, very close to hospital and many restaurants in area.They do allow pets unfortunately.Also we do use a noise maker so noise was not an issue at night.Great kitchenette with good quality service wear.Breakfast decent. On par for the price of the room.More</t>
   </si>
   <si>
@@ -376,6 +590,39 @@
   </si>
   <si>
     <t>Management is really cool and the service is really great! I'd recommend to anyone. Had a a good stay and awesome city most of all. Ive come from out of town and couldnt believe how awesome htown was. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r582853527-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>582853527</t>
+  </si>
+  <si>
+    <t>Awesome Stay!</t>
+  </si>
+  <si>
+    <t>Awesome stay! Management is super friendly and really went above and beyond.  Rooms are very clean and I had no issues.  When you call down asking for anything they are quick and very helpful.  I will be staying here again when I visit Houston.  Highly recommend this place for anyone looking for a professional stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Awesome stay! Management is super friendly and really went above and beyond.  Rooms are very clean and I had no issues.  When you call down asking for anything they are quick and very helpful.  I will be staying here again when I visit Houston.  Highly recommend this place for anyone looking for a professional stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r580885748-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>580885748</t>
+  </si>
+  <si>
+    <t>05/17/2018</t>
+  </si>
+  <si>
+    <t>Home away from Home</t>
+  </si>
+  <si>
+    <t>We had a great experience here on a mini-vacation. Service was outstanding, and our room was well equipped with anything we needed- better than expected! Close to NASA, shopping, and central to Houston and Galveston. Breakfast was mostly pre-packaged, but we still enjoyed it. MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a great experience here on a mini-vacation. Service was outstanding, and our room was well equipped with anything we needed- better than expected! Close to NASA, shopping, and central to Houston and Galveston. Breakfast was mostly pre-packaged, but we still enjoyed it. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r574624144-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
@@ -448,6 +695,45 @@
     <t>This is a wonderful hotel to stay in.  We travel a lot and this was by far the best hotel we have stayed in.  We reserved the separate king bedroom with a sofa sleeper.  We were happily shocked at the amount of space we had.  You can't go wrong staying here.  Great place!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r574066344-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>574066344</t>
+  </si>
+  <si>
+    <t>04/17/2018</t>
+  </si>
+  <si>
+    <t>Excellent value in a great location</t>
+  </si>
+  <si>
+    <t>Very close to NASA with easy access to downtown. Clean, safe hotel with modern amenities. Very reasonable price. 24-hour fresh coffee and free breakfast. Suites have a mini kitchen, a nice work space, sitting area, and plenty of electrical outlets.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very close to NASA with easy access to downtown. Clean, safe hotel with modern amenities. Very reasonable price. 24-hour fresh coffee and free breakfast. Suites have a mini kitchen, a nice work space, sitting area, and plenty of electrical outlets.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r574062602-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>574062602</t>
+  </si>
+  <si>
+    <t>Great hotel!!!</t>
+  </si>
+  <si>
+    <t>I would definitely recommend this hotel. Great experience and service. The staff was very friendly and helpful. The room was very clean and spacious. I highly recommend this hotel to anyone and the price was just rightMoreShow less</t>
+  </si>
+  <si>
+    <t>Matthew H, General Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded April 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2018</t>
+  </si>
+  <si>
+    <t>I would definitely recommend this hotel. Great experience and service. The staff was very friendly and helpful. The room was very clean and spacious. I highly recommend this hotel to anyone and the price was just rightMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r573788984-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
   </si>
   <si>
@@ -463,9 +749,6 @@
     <t>Clean, friendly, they have Everything you could need including a comfortable bed. Pool outdoor grill. Kitchen Complete with dishes silverware. Pots pans coffee maker. The bathroom was quite nice but was only a shower no tub. There was a hair dryer in there. This is a very nice place to stay and would be very comfortable in an extended stayMoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Clean, friendly, they have Everything you could need including a comfortable bed. Pool outdoor grill. Kitchen Complete with dishes silverware. Pots pans coffee maker. The bathroom was quite nice but was only a shower no tub. There was a hair dryer in there. This is a very nice place to stay and would be very comfortable in an extended stayMore</t>
   </si>
   <si>
@@ -481,12 +764,6 @@
     <t>I am from local and very familiar with the area.  I needed a room to house a family of relatives from out of town and found this place.  The hotel was clean, beautiful decor, and the studio room with two queen beds and a sofa-bed we got was big enough for a family of five.  The room pretty much got everything you need: a fridge, microwave, coffee maker, disks, utensils, etc.  The family was so impressed with the place.  They used the poor , and loved the breakfast in the morning as well.  Lexi, our front desk lady, was extra friendly, very accommodating, and very informative, which made the family felt very welcoming.  This is definitely a place to stay if you visit the area.  Newly renovated Baybrook mall is across I-45.  Thanks Home2 Suites, Webster for a job well done.MoreShow less</t>
   </si>
   <si>
-    <t>Matthew H, General Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded April 19, 2018</t>
-  </si>
-  <si>
-    <t>Responded April 19, 2018</t>
-  </si>
-  <si>
     <t>I am from local and very familiar with the area.  I needed a room to house a family of relatives from out of town and found this place.  The hotel was clean, beautiful decor, and the studio room with two queen beds and a sofa-bed we got was big enough for a family of five.  The room pretty much got everything you need: a fridge, microwave, coffee maker, disks, utensils, etc.  The family was so impressed with the place.  They used the poor , and loved the breakfast in the morning as well.  Lexi, our front desk lady, was extra friendly, very accommodating, and very informative, which made the family felt very welcoming.  This is definitely a place to stay if you visit the area.  Newly renovated Baybrook mall is across I-45.  Thanks Home2 Suites, Webster for a job well done.More</t>
   </si>
   <si>
@@ -514,15 +791,54 @@
     <t>If I can give this hotel 10 stars I would. I just stayed here may 30 thru today April 1 Easter weekend. I loved how the rooms have a micro,sink,fridge,freezer. The best part about this hotel was the fantastic employees there I have stayed in 4 to 5 star hotels and they surpassed them by far. They even got my little ones easter baskets. They made us feel like home. I will definitely be back. Plus breakfast was complimentary and loved the pool with outdoor grill and lighting.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r569005585-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>569005585</t>
+  </si>
+  <si>
+    <t>03/26/2018</t>
+  </si>
+  <si>
+    <t>better than expected !!</t>
+  </si>
+  <si>
+    <t>Dad was in local hospital and we needed a night stay. The location was very convenient as we had other family member in hospital. The hotel is new, clean, modern, comfortable, and very efficient. The beds were heavenly. I love that I could do laundry and work out to relieve a little stress. !!! The complimentary breakfast was above and beyond with healthy choices. The staff was so sweet and helpful with dad and a few issues we had ! We travel often and will def stay at H2 in other cities after this experience !!MoreShow less</t>
+  </si>
+  <si>
+    <t>Matthew H, General Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded March 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2018</t>
+  </si>
+  <si>
+    <t>Dad was in local hospital and we needed a night stay. The location was very convenient as we had other family member in hospital. The hotel is new, clean, modern, comfortable, and very efficient. The beds were heavenly. I love that I could do laundry and work out to relieve a little stress. !!! The complimentary breakfast was above and beyond with healthy choices. The staff was so sweet and helpful with dad and a few issues we had ! We travel often and will def stay at H2 in other cities after this experience !!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r566926832-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>566926832</t>
+  </si>
+  <si>
+    <t>03/16/2018</t>
+  </si>
+  <si>
+    <t>5 star!</t>
+  </si>
+  <si>
+    <t>Lovely staff, love that after 11pm if you dont have your hotel key they have to buzz you in, breakfast wasn't like your conventional breakfast they had pre-made, ready to go meals and the usual waffle maker and coffee. Our room/suite was gorgeous and every single time we left and came back at the end of the day our dishes were washed and put away for us! I give it 5 stars and two thumbs up.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lovely staff, love that after 11pm if you dont have your hotel key they have to buzz you in, breakfast wasn't like your conventional breakfast they had pre-made, ready to go meals and the usual waffle maker and coffee. Our room/suite was gorgeous and every single time we left and came back at the end of the day our dishes were washed and put away for us! I give it 5 stars and two thumbs up.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r566855317-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
   </si>
   <si>
     <t>566855317</t>
   </si>
   <si>
-    <t>03/16/2018</t>
-  </si>
-  <si>
     <t>gret property</t>
   </si>
   <si>
@@ -589,6 +905,51 @@
     <t>I travel weekly for work. I happen to stay here for 6 weeks and truly enjoyed my stay. This hotel is in my top 3! I love this place! The rooms are very clean, the hotel staff are fabulous and the location is great! Lots of restaurants and shopping around and about 30 mins from Hobby Airport. I have a favorite room here! Won’t be disappointed!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r561248011-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>561248011</t>
+  </si>
+  <si>
+    <t>02/18/2018</t>
+  </si>
+  <si>
+    <t>Amazing suite hotel</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel and everything looks great.  We stayed here for 1 night before our cruise from Galveston.Check in was a breeze.  Our suite consisted of a living room / kitchen combo, a large bedroom and a large bath.  The bath had a large shower with glass doors - easy to get in and out of.  The towels were large, soft and fluffy.  We didn't use much of the kitchen as we were only here 1 night, but the refrigerator was nice.  The bed was comfortable.Breakfast was included and it was a nice buffet with many choices, including hot entrees and fresh fruit.  Surprisingly the dishes, glasses and utensils were "real" - no paper plates and flimsy plastic utensils.Lexi at the front desk could not have been sweeter.  She heard that our cruise was delayed because of fog and offered to extend our check-out time.  We declined her kind offer because I would rather spend time in Galveston than wait in the hotel.This is a pet friendly hotel and we saw several guests with their dogs.  They were well behaved and quite (both guests and dogs.)  We have stayed in several hotels in Webster prior to cruises and this is our favorite.  We will stay here in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert M, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded March 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2018</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel and everything looks great.  We stayed here for 1 night before our cruise from Galveston.Check in was a breeze.  Our suite consisted of a living room / kitchen combo, a large bedroom and a large bath.  The bath had a large shower with glass doors - easy to get in and out of.  The towels were large, soft and fluffy.  We didn't use much of the kitchen as we were only here 1 night, but the refrigerator was nice.  The bed was comfortable.Breakfast was included and it was a nice buffet with many choices, including hot entrees and fresh fruit.  Surprisingly the dishes, glasses and utensils were "real" - no paper plates and flimsy plastic utensils.Lexi at the front desk could not have been sweeter.  She heard that our cruise was delayed because of fog and offered to extend our check-out time.  We declined her kind offer because I would rather spend time in Galveston than wait in the hotel.This is a pet friendly hotel and we saw several guests with their dogs.  They were well behaved and quite (both guests and dogs.)  We have stayed in several hotels in Webster prior to cruises and this is our favorite.  We will stay here in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r561226139-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>561226139</t>
+  </si>
+  <si>
+    <t>New hotel- fabulous stay</t>
+  </si>
+  <si>
+    <t>Did not know what to expect but am thoroughly pleased with this concept.  Nice size rooms.  We had a suite which had refrigerator, microwave, actual dishes, dishwasher. etc.  Great place for long term stay especially since they are also Pet Friendly. Saw several people with dogs staying at the hotel.  Convenient off freeway and close to Galveston cruise port by about 30 minutes.  Friendly employees.  They have laundry facilities which are right next to the exercise room.  So, if you want to work out and need to do laundry, great idea.  Very nice complimentary buffet breakfast offered.MoreShow less</t>
+  </si>
+  <si>
+    <t>Matthew H, General Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded February 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2018</t>
+  </si>
+  <si>
+    <t>Did not know what to expect but am thoroughly pleased with this concept.  Nice size rooms.  We had a suite which had refrigerator, microwave, actual dishes, dishwasher. etc.  Great place for long term stay especially since they are also Pet Friendly. Saw several people with dogs staying at the hotel.  Convenient off freeway and close to Galveston cruise port by about 30 minutes.  Friendly employees.  They have laundry facilities which are right next to the exercise room.  So, if you want to work out and need to do laundry, great idea.  Very nice complimentary buffet breakfast offered.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r559691003-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
   </si>
   <si>
@@ -664,6 +1025,51 @@
     <t>Friendly, clean, good amenities. Wish they had more heart healthy food for breakfast. Encourage them to keep their new egg white omelette . Nice gym and laundry facilities. Computer maintenance in Business Center could be improved. Good parking. Close to restaurants, malls and freeway.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r552797244-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>552797244</t>
+  </si>
+  <si>
+    <t>01/09/2018</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>The staff was super nice and helpful. The hotel and room were very clean. The room and beds were also very nice and comfortable. The complimentary breakfast was also great, although more gluten/dairy free options would have been great. The Only downfall was the length the hot water lasted. MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert M, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded January 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2018</t>
+  </si>
+  <si>
+    <t>The staff was super nice and helpful. The hotel and room were very clean. The room and beds were also very nice and comfortable. The complimentary breakfast was also great, although more gluten/dairy free options would have been great. The Only downfall was the length the hot water lasted. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r552089756-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>552089756</t>
+  </si>
+  <si>
+    <t>01/06/2018</t>
+  </si>
+  <si>
+    <t>New Style Extended Stay Hotel</t>
+  </si>
+  <si>
+    <t>What a pleasant surprise. This was our first visit to this new style property. It's kind of a European style which I liked very much. The staff was great. The room was big, clean, &amp; quiet. The bed was very comfortable, but that may be partially due to the newness of the hotel. The breakfast took a little to get used to because you had to microwave your choice. I was skeptical at first but my egg &amp; sausage sandwich was pretty good. The price was a little less than another extended stay hotel about 2 miles away. We have family in the area and will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>What a pleasant surprise. This was our first visit to this new style property. It's kind of a European style which I liked very much. The staff was great. The room was big, clean, &amp; quiet. The bed was very comfortable, but that may be partially due to the newness of the hotel. The breakfast took a little to get used to because you had to microwave your choice. I was skeptical at first but my egg &amp; sausage sandwich was pretty good. The price was a little less than another extended stay hotel about 2 miles away. We have family in the area and will be back.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r551400614-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
   </si>
   <si>
@@ -679,15 +1085,6 @@
     <t>We picked this Hotel for it's location and for it's suite with kitchen. We were very comfortable, kitchen was perfect and the size of the room with storage was great. Staff was friendly and hotel was clean. After a bad experience at another Hilton the previous year, I am happy we had a great one at this location. Only con was the breakfast options were slim. But we'd stay here again if needed.MoreShow less</t>
   </si>
   <si>
-    <t>December 2017</t>
-  </si>
-  <si>
-    <t>Robert M, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded January 11, 2018</t>
-  </si>
-  <si>
-    <t>Responded January 11, 2018</t>
-  </si>
-  <si>
     <t>We picked this Hotel for it's location and for it's suite with kitchen. We were very comfortable, kitchen was perfect and the size of the room with storage was great. Staff was friendly and hotel was clean. After a bad experience at another Hilton the previous year, I am happy we had a great one at this location. Only con was the breakfast options were slim. But we'd stay here again if needed.More</t>
   </si>
   <si>
@@ -730,6 +1127,48 @@
     <t>This place was excellent.  Clean, comfortable, close to work, attentive and courteous staff.  Delicious breakfast. The suites are large and include almost a standard size fridge and a dishwasher with dishes, silverware.  No cooktop but you can request a portable one from the front desk.  Overall a very nice hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r548299113-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>548299113</t>
+  </si>
+  <si>
+    <t>12/20/2017</t>
+  </si>
+  <si>
+    <t>Love this place!</t>
+  </si>
+  <si>
+    <t>Wonderful hotel! Stayed 4 nights with my dog. Front desk staff was SO nice and helpful! Very clean and comfortable, it has everything you need as if you were at home. They are pet friendly which is a huge plus. Would definitely recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert M, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded December 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2017</t>
+  </si>
+  <si>
+    <t>Wonderful hotel! Stayed 4 nights with my dog. Front desk staff was SO nice and helpful! Very clean and comfortable, it has everything you need as if you were at home. They are pet friendly which is a huge plus. Would definitely recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r547985423-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>547985423</t>
+  </si>
+  <si>
+    <t>12/18/2017</t>
+  </si>
+  <si>
+    <t>Quality Service</t>
+  </si>
+  <si>
+    <t>Used this hotel during our evacuation time for Hurricane Harvey. Staff was very accommodating and professional. Hotel location is in an excellent area next to various eateries and the mall as well as I45.MoreShow less</t>
+  </si>
+  <si>
+    <t>Used this hotel during our evacuation time for Hurricane Harvey. Staff was very accommodating and professional. Hotel location is in an excellent area next to various eateries and the mall as well as I45.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r543262669-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
   </si>
   <si>
@@ -796,6 +1235,48 @@
     <t>Stayed here for 26 days.  The greeting staff and those working the complimentary breakfast in the mornings were the friendlies most helpful people you will meet at a Hotel.  The manager was also, very nice.  The rooms were roomy and clean, and the price was right!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r540758850-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>540758850</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>New Hilton group is great</t>
+  </si>
+  <si>
+    <t>Home2 is a great offer in the extended stay category or if you if you just like the condo-like amenities. There all there. Clean, very roomy, updated style s, &amp; this staff was really putting forth effort to make sure all our needs were met. I'm still not happy with unsecured internet. They gave a password but it wasn't secureMoreShow less</t>
+  </si>
+  <si>
+    <t>Robert M, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded November 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2017</t>
+  </si>
+  <si>
+    <t>Home2 is a great offer in the extended stay category or if you if you just like the condo-like amenities. There all there. Clean, very roomy, updated style s, &amp; this staff was really putting forth effort to make sure all our needs were met. I'm still not happy with unsecured internet. They gave a password but it wasn't secureMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r539446796-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>539446796</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>My New Favorite in the Clear Lake Area</t>
+  </si>
+  <si>
+    <t>I usually stay in the Garden Inn next door but I decided to try the the new hotel and I am so glad I did.  The staff was awesome, every last one of them.  They had a Pumpkin Decorating Contest set up by the elevators.  They were very well done and guests voted for the winner.  The room is very well designed and the kitchenette has everything but an oven/cook top.  Even a dishwasher!  There are BBQ grill outside and I saw folks using them every evening.  Beds were comfortable and the linens nice and soft.MoreShow less</t>
+  </si>
+  <si>
+    <t>I usually stay in the Garden Inn next door but I decided to try the the new hotel and I am so glad I did.  The staff was awesome, every last one of them.  They had a Pumpkin Decorating Contest set up by the elevators.  They were very well done and guests voted for the winner.  The room is very well designed and the kitchenette has everything but an oven/cook top.  Even a dishwasher!  There are BBQ grill outside and I saw folks using them every evening.  Beds were comfortable and the linens nice and soft.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r538004559-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
   </si>
   <si>
@@ -856,6 +1337,51 @@
     <t>I am blown away by the professionalism and courtesy of this hotel staff.  My room is clean, the breakfast is great, but the interaction with the front Desk Staff is amazing.  Lexi brings a smile and so much positive energy to the hotel.  Everyone loves her and I even see customers hugging her before they leave.  Matt the Manager must be doing something very good to have such happy employees.  As a first responder, I am on the road alot and have stayed at many different hotels, but Home 2 Suites Webster is one of the best.  Thanks to all the employees for making my stay so pleasant and comfortable.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r531166605-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>531166605</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t>I'd try elsewhere if you can</t>
+  </si>
+  <si>
+    <t>The short version is, bed wasn't very comfortable, housekeeping entered my room when I had door hangar out asking not to be disturbed, spiders in bathroom, poor wifi, no cooking capability, poor selections at breakfast (although what was there was rather good for 'free breakfast' standards) and poor response by management. I received an email from the GM of the property and he asked my why my rating was low.  I explained it to him and never heard back.  For that reason (among others) I am lowering my rating further.MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert M, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2017</t>
+  </si>
+  <si>
+    <t>The short version is, bed wasn't very comfortable, housekeeping entered my room when I had door hangar out asking not to be disturbed, spiders in bathroom, poor wifi, no cooking capability, poor selections at breakfast (although what was there was rather good for 'free breakfast' standards) and poor response by management. I received an email from the GM of the property and he asked my why my rating was low.  I explained it to him and never heard back.  For that reason (among others) I am lowering my rating further.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r529642251-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>529642251</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>Excellent customer service</t>
+  </si>
+  <si>
+    <t>We stayed here for several nights as my wife was undergoing a surgical procedure nearby and we wanted a room with a separate sleeping area for her recovery, the GM  (Matt) was very helpful even borrowing a wheelchair from the Hilton next door to aid in getting my wife to the room following the surgery, he also helped me get her out of the car, into the wheelchair, and, watched over her while I parked our car. This is service above and beyond and is very much appreciated, the entire staff was also very helpful at every turn, and Matt even gave my wife a free container of Ice Cream which as we all know is a very effective medical recovery aid, many thanks to everyone at the Home 2 Suites in Webster Texas for making our stay so pleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>We stayed here for several nights as my wife was undergoing a surgical procedure nearby and we wanted a room with a separate sleeping area for her recovery, the GM  (Matt) was very helpful even borrowing a wheelchair from the Hilton next door to aid in getting my wife to the room following the surgery, he also helped me get her out of the car, into the wheelchair, and, watched over her while I parked our car. This is service above and beyond and is very much appreciated, the entire staff was also very helpful at every turn, and Matt even gave my wife a free container of Ice Cream which as we all know is a very effective medical recovery aid, many thanks to everyone at the Home 2 Suites in Webster Texas for making our stay so pleasant.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r528836387-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
   </si>
   <si>
@@ -871,9 +1397,6 @@
     <t>I've stayed here before and really liked the hotel, so when I got there and realized that I had made reservations at another hotel, the wrong Hotel, I was devastated. I asked the hotel clerk if there were any rooms available and without checking the computer she looked me in my eyes and said no. I walked out to my car, got online, and was able to reserve a room moments after being denied. I returned to the same Clerk where she told me the same thing, that the hotel was booked, insinuating that I did not have a reservation or a room  even though I was showing her my confirmation number. There was no apology. And when I finally did get my room, the TV was on the wrong input for some reason and I could not figure out how to change it. I called the front desk multiple times but received no answer. I had to go back downstairs where I was given a list of instructions as to how to fix the TV. I personally felt like someone else should have come to my room to assist me. I love this hotel chain but this was definitely my worst experience, not to mention the toilet seat was positioned unevenly so it did not sit on the toilet properly, making it impossible to comfortably use the restroom.MoreShow less</t>
   </si>
   <si>
-    <t>September 2017</t>
-  </si>
-  <si>
     <t>Robert M, Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded October 3, 2017</t>
   </si>
   <si>
@@ -931,6 +1454,57 @@
     <t>Rooms were nice, hotel was brand new.  Pool is very nice.  Staff are having problems it appears.  Could not get billing right, could not explain charges on CC, said they issued a credit which never showed up.  Be careful staying here until they get themselves in order- just opened a month ago when we stayed.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r520746535-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>520746535</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t>Excellence Accomodations and Superb Service!</t>
+  </si>
+  <si>
+    <t>During Hurricane Harvey, the team at the Home2 Suites in Webster provided outstanding service and showed compassion for those of us who sought refuge. They provided excellent service food and friendly conversation to those of us who needed. The staff ,that was there, showed a true team spirit working all aspects of the hotel around the clock. Couldn't ask for a better team.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Matthew H, General Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded September 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2017</t>
+  </si>
+  <si>
+    <t>During Hurricane Harvey, the team at the Home2 Suites in Webster provided outstanding service and showed compassion for those of us who sought refuge. They provided excellent service food and friendly conversation to those of us who needed. The staff ,that was there, showed a true team spirit working all aspects of the hotel around the clock. Couldn't ask for a better team.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r516522653-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>516522653</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>Nice Place to Stay!</t>
+  </si>
+  <si>
+    <t>New Hotel- Very nice Modern decor bright colors! Love the layout of the suites, kitchenette very nice, staff very friendly and helpful! The Beds and sheets are Amazing! Very Good night sleep! Enjoyed our stay! Plan to stay there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Matthew H, General Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded August 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2017</t>
+  </si>
+  <si>
+    <t>New Hotel- Very nice Modern decor bright colors! Love the layout of the suites, kitchenette very nice, staff very friendly and helpful! The Beds and sheets are Amazing! Very Good night sleep! Enjoyed our stay! Plan to stay there again!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d10755973-r513534836-Home2_Suites_by_Hilton_Houston_Webster-Webster_Texas.html</t>
   </si>
   <si>
@@ -944,15 +1518,6 @@
   </si>
   <si>
     <t>Very hospitable staff, nice and comfortable stay , very spacious and clean room.. enjoyed my stay . Amenities were great, including fitness center and pool.. very friendly environment with families travelling with kidsMoreShow less</t>
-  </si>
-  <si>
-    <t>August 2017</t>
-  </si>
-  <si>
-    <t>Matthew H, General Manager at Home2 Suites by Hilton Houston Webster, responded to this reviewResponded September 18, 2017</t>
-  </si>
-  <si>
-    <t>Responded September 18, 2017</t>
   </si>
   <si>
     <t>Very hospitable staff, nice and comfortable stay , very spacious and clean room.. enjoyed my stay . Amenities were great, including fitness center and pool.. very friendly environment with families travelling with kidsMore</t>
@@ -1561,7 +2126,7 @@
         <v>60</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>51</v>
@@ -1569,22 +2134,12 @@
       <c r="O3" t="s">
         <v>52</v>
       </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>3</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -1623,50 +2178,46 @@
         <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
       <c r="R4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="X4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1682,7 +2233,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1691,53 +2242,39 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>68</v>
-      </c>
-      <c r="O5" t="s">
-        <v>75</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
@@ -1753,7 +2290,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1762,43 +2299,53 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>84</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="X6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y6" t="s">
         <v>86</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -1814,7 +2361,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1823,43 +2370,53 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
         <v>89</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>90</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>91</v>
       </c>
-      <c r="L7" t="s">
-        <v>92</v>
-      </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
         <v>52</v>
       </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
+        <v>92</v>
+      </c>
+      <c r="X7" t="s">
         <v>93</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>94</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="8">
@@ -1875,7 +2432,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1884,53 +2441,53 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
         <v>97</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>98</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
         <v>99</v>
       </c>
-      <c r="L8" t="s">
-        <v>100</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>101</v>
-      </c>
       <c r="O8" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="X8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -1946,7 +2503,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1955,53 +2512,49 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
         <v>106</v>
       </c>
-      <c r="J9" t="s">
-        <v>107</v>
-      </c>
-      <c r="K9" t="s">
-        <v>108</v>
-      </c>
-      <c r="L9" t="s">
-        <v>109</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>101</v>
-      </c>
-      <c r="O9" t="s">
-        <v>52</v>
-      </c>
       <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="X9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
@@ -2017,7 +2570,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -2026,43 +2579,53 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
         <v>114</v>
       </c>
-      <c r="J10" t="s">
-        <v>115</v>
-      </c>
-      <c r="K10" t="s">
-        <v>116</v>
-      </c>
-      <c r="L10" t="s">
-        <v>117</v>
-      </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="O10" t="s">
-        <v>75</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="X10" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
@@ -2078,7 +2641,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -2087,33 +2650,37 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
         <v>121</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>122</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>99</v>
+      </c>
+      <c r="O11" t="s">
         <v>123</v>
       </c>
-      <c r="L11" t="s">
-        <v>124</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>125</v>
-      </c>
-      <c r="O11" t="s">
-        <v>84</v>
-      </c>
-      <c r="P11" t="s"/>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
       <c r="Q11" t="n">
         <v>5</v>
       </c>
-      <c r="R11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
@@ -2123,13 +2690,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
+        <v>124</v>
+      </c>
+      <c r="X11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y11" t="s">
         <v>126</v>
-      </c>
-      <c r="X11" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="12">
@@ -2145,7 +2712,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -2154,49 +2721,47 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" t="s">
         <v>130</v>
       </c>
-      <c r="J12" t="s">
-        <v>122</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>131</v>
       </c>
-      <c r="L12" t="s">
-        <v>132</v>
-      </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="O12" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="n">
         <v>5</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="X12" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
@@ -2212,7 +2777,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -2221,53 +2786,43 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="X13" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="Y13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
@@ -2283,7 +2838,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2292,25 +2847,25 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2322,13 +2877,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="X14" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="Y14" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
@@ -2344,7 +2899,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2353,32 +2908,38 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="J15" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
         <v>5</v>
@@ -2387,13 +2948,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="X15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Y15" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
@@ -2409,7 +2970,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2418,43 +2979,53 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="J16" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
         <v>156</v>
       </c>
-      <c r="K16" t="s">
-        <v>157</v>
-      </c>
-      <c r="L16" t="s">
-        <v>158</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>125</v>
-      </c>
       <c r="O16" t="s">
-        <v>52</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="X16" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="Y16" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17">
@@ -2470,7 +3041,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2479,53 +3050,53 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="J17" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" t="s">
+        <v>170</v>
+      </c>
+      <c r="L17" t="s">
+        <v>171</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>156</v>
+      </c>
+      <c r="O17" t="s">
         <v>164</v>
       </c>
-      <c r="K17" t="s">
-        <v>165</v>
-      </c>
-      <c r="L17" t="s">
-        <v>166</v>
-      </c>
-      <c r="M17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N17" t="s">
-        <v>118</v>
-      </c>
-      <c r="O17" t="s">
-        <v>52</v>
-      </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q17" t="n">
         <v>5</v>
       </c>
       <c r="R17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="X17" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="Y17" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18">
@@ -2541,7 +3112,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2550,43 +3121,53 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J18" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K18" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="O18" t="s">
         <v>52</v>
       </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="X18" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Y18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
@@ -2602,7 +3183,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2611,25 +3192,25 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K19" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="O19" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2641,13 +3222,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="X19" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="Y19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20">
@@ -2663,7 +3244,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2672,10 +3253,10 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J20" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s">
         <v>190</v>
@@ -2687,38 +3268,28 @@
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="O20" t="s">
-        <v>102</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>4</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
+        <v>165</v>
+      </c>
+      <c r="X20" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y20" t="s">
         <v>192</v>
-      </c>
-      <c r="X20" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="21">
@@ -2734,7 +3305,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2743,43 +3314,53 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J21" t="s">
+        <v>195</v>
+      </c>
+      <c r="K21" t="s">
         <v>196</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>197</v>
       </c>
-      <c r="K21" t="s">
-        <v>198</v>
-      </c>
-      <c r="L21" t="s">
-        <v>199</v>
-      </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="O21" t="s">
-        <v>102</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="X21" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="Y21" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22">
@@ -2795,7 +3376,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -2804,43 +3385,49 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
+        <v>200</v>
+      </c>
+      <c r="J22" t="s">
+        <v>201</v>
+      </c>
+      <c r="K22" t="s">
+        <v>202</v>
+      </c>
+      <c r="L22" t="s">
+        <v>203</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>204</v>
       </c>
-      <c r="J22" t="s">
-        <v>205</v>
-      </c>
-      <c r="K22" t="s">
-        <v>206</v>
-      </c>
-      <c r="L22" t="s">
-        <v>207</v>
-      </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>208</v>
-      </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
       <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="X22" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Y22" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
@@ -2856,7 +3443,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -2865,32 +3452,28 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J23" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="K23" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
       <c r="R23" t="n">
         <v>5</v>
       </c>
@@ -2905,13 +3488,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="X23" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="Y23" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24">
@@ -2927,7 +3510,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -2936,22 +3519,22 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="J24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K24" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="O24" t="s">
         <v>52</v>
@@ -2976,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
+        <v>205</v>
+      </c>
+      <c r="X24" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y24" t="s">
         <v>218</v>
-      </c>
-      <c r="X24" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="25">
@@ -2998,7 +3581,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -3007,25 +3590,25 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="J25" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="K25" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="L25" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="O25" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3047,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="X25" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="Y25" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26">
@@ -3069,7 +3652,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -3078,25 +3661,25 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="J26" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="K26" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="O26" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3118,13 +3701,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="X26" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="Y26" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
@@ -3140,7 +3723,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3149,53 +3732,43 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="J27" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="K27" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="L27" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
-      <c r="R27" t="n">
-        <v>3</v>
-      </c>
-      <c r="S27" t="n">
-        <v>4</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="X27" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="Y27" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28">
@@ -3211,7 +3784,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3220,38 +3793,32 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="J28" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="K28" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="L28" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="O28" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>5</v>
@@ -3260,13 +3827,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="X28" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="Y28" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29">
@@ -3282,7 +3849,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3291,53 +3858,43 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="J29" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="K29" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="L29" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="O29" t="s">
         <v>52</v>
       </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="X29" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="Y29" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30">
@@ -3353,7 +3910,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3362,25 +3919,25 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="J30" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="K30" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="L30" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>239</v>
+        <v>186</v>
       </c>
       <c r="O30" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3402,13 +3959,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="X30" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="Y30" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31">
@@ -3424,7 +3981,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3433,25 +3990,25 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="J31" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="K31" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="L31" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>239</v>
+        <v>186</v>
       </c>
       <c r="O31" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -3469,13 +4026,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="X31" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="Y31" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32">
@@ -3491,7 +4048,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3500,31 +4057,31 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="J32" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="K32" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L32" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>281</v>
+        <v>186</v>
       </c>
       <c r="O32" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R32" t="n">
         <v>4</v>
@@ -3534,19 +4091,19 @@
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="X32" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="Y32" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33">
@@ -3562,7 +4119,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3571,53 +4128,43 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="J33" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="K33" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="L33" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="O33" t="s">
-        <v>102</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="X33" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="Y33" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34">
@@ -3633,7 +4180,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -3642,53 +4189,43 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="J34" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="K34" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="L34" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="O34" t="s">
-        <v>52</v>
-      </c>
-      <c r="P34" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>2</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="X34" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="Y34" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35">
@@ -3704,7 +4241,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -3713,35 +4250,31 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="J35" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="K35" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="L35" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="O35" t="s">
-        <v>102</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="n">
         <v>5</v>
       </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
+      <c r="R35" t="s"/>
       <c r="S35" t="n">
         <v>5</v>
       </c>
@@ -3753,13 +4286,1876 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
+        <v>294</v>
+      </c>
+      <c r="X35" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>297</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>298</v>
+      </c>
+      <c r="J36" t="s">
+        <v>291</v>
+      </c>
+      <c r="K36" t="s">
+        <v>299</v>
+      </c>
+      <c r="L36" t="s">
+        <v>300</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>277</v>
+      </c>
+      <c r="O36" t="s">
+        <v>106</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>301</v>
+      </c>
+      <c r="X36" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>304</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>305</v>
+      </c>
+      <c r="J37" t="s">
+        <v>306</v>
+      </c>
+      <c r="K37" t="s">
         <v>307</v>
       </c>
-      <c r="X35" t="s">
+      <c r="L37" t="s">
         <v>308</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>277</v>
+      </c>
+      <c r="O37" t="s">
+        <v>164</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
         <v>309</v>
+      </c>
+      <c r="X37" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>312</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>313</v>
+      </c>
+      <c r="J38" t="s">
+        <v>314</v>
+      </c>
+      <c r="K38" t="s">
+        <v>315</v>
+      </c>
+      <c r="L38" t="s">
+        <v>316</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>277</v>
+      </c>
+      <c r="O38" t="s">
+        <v>164</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>317</v>
+      </c>
+      <c r="X38" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>320</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>321</v>
+      </c>
+      <c r="J39" t="s">
+        <v>322</v>
+      </c>
+      <c r="K39" t="s">
+        <v>323</v>
+      </c>
+      <c r="L39" t="s">
+        <v>324</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>325</v>
+      </c>
+      <c r="O39" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>326</v>
+      </c>
+      <c r="X39" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>329</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>330</v>
+      </c>
+      <c r="J40" t="s">
+        <v>331</v>
+      </c>
+      <c r="K40" t="s">
+        <v>332</v>
+      </c>
+      <c r="L40" t="s">
+        <v>333</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>325</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>334</v>
+      </c>
+      <c r="X40" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>337</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>338</v>
+      </c>
+      <c r="J41" t="s">
+        <v>339</v>
+      </c>
+      <c r="K41" t="s">
+        <v>340</v>
+      </c>
+      <c r="L41" t="s">
+        <v>341</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>342</v>
+      </c>
+      <c r="O41" t="s">
+        <v>106</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>334</v>
+      </c>
+      <c r="X41" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>344</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>345</v>
+      </c>
+      <c r="J42" t="s">
+        <v>346</v>
+      </c>
+      <c r="K42" t="s">
+        <v>347</v>
+      </c>
+      <c r="L42" t="s">
+        <v>348</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>342</v>
+      </c>
+      <c r="O42" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>334</v>
+      </c>
+      <c r="X42" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>350</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>351</v>
+      </c>
+      <c r="J43" t="s">
+        <v>346</v>
+      </c>
+      <c r="K43" t="s">
+        <v>352</v>
+      </c>
+      <c r="L43" t="s">
+        <v>353</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>342</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>334</v>
+      </c>
+      <c r="X43" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>355</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>356</v>
+      </c>
+      <c r="J44" t="s">
+        <v>357</v>
+      </c>
+      <c r="K44" t="s">
+        <v>358</v>
+      </c>
+      <c r="L44" t="s">
+        <v>359</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>342</v>
+      </c>
+      <c r="O44" t="s">
+        <v>164</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>360</v>
+      </c>
+      <c r="X44" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>363</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>364</v>
+      </c>
+      <c r="J45" t="s">
+        <v>365</v>
+      </c>
+      <c r="K45" t="s">
+        <v>366</v>
+      </c>
+      <c r="L45" t="s">
+        <v>367</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>342</v>
+      </c>
+      <c r="O45" t="s">
+        <v>123</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>368</v>
+      </c>
+      <c r="X45" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>371</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>372</v>
+      </c>
+      <c r="J46" t="s">
+        <v>373</v>
+      </c>
+      <c r="K46" t="s">
+        <v>374</v>
+      </c>
+      <c r="L46" t="s">
+        <v>375</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>342</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>368</v>
+      </c>
+      <c r="X46" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>377</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>378</v>
+      </c>
+      <c r="J47" t="s">
+        <v>379</v>
+      </c>
+      <c r="K47" t="s">
+        <v>380</v>
+      </c>
+      <c r="L47" t="s">
+        <v>381</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>382</v>
+      </c>
+      <c r="O47" t="s">
+        <v>164</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>383</v>
+      </c>
+      <c r="X47" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>386</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>387</v>
+      </c>
+      <c r="J48" t="s">
+        <v>388</v>
+      </c>
+      <c r="K48" t="s">
+        <v>389</v>
+      </c>
+      <c r="L48" t="s">
+        <v>390</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>391</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>383</v>
+      </c>
+      <c r="X48" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>393</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>394</v>
+      </c>
+      <c r="J49" t="s">
+        <v>395</v>
+      </c>
+      <c r="K49" t="s">
+        <v>396</v>
+      </c>
+      <c r="L49" t="s">
+        <v>397</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>391</v>
+      </c>
+      <c r="O49" t="s">
+        <v>164</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>383</v>
+      </c>
+      <c r="X49" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>399</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>400</v>
+      </c>
+      <c r="J50" t="s">
+        <v>401</v>
+      </c>
+      <c r="K50" t="s">
+        <v>402</v>
+      </c>
+      <c r="L50" t="s">
+        <v>403</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>391</v>
+      </c>
+      <c r="O50" t="s">
+        <v>52</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>404</v>
+      </c>
+      <c r="X50" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>407</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>408</v>
+      </c>
+      <c r="J51" t="s">
+        <v>409</v>
+      </c>
+      <c r="K51" t="s">
+        <v>410</v>
+      </c>
+      <c r="L51" t="s">
+        <v>411</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>391</v>
+      </c>
+      <c r="O51" t="s">
+        <v>164</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>404</v>
+      </c>
+      <c r="X51" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>413</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>414</v>
+      </c>
+      <c r="J52" t="s">
+        <v>415</v>
+      </c>
+      <c r="K52" t="s">
+        <v>416</v>
+      </c>
+      <c r="L52" t="s">
+        <v>417</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>382</v>
+      </c>
+      <c r="O52" t="s">
+        <v>52</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>418</v>
+      </c>
+      <c r="X52" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>421</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>422</v>
+      </c>
+      <c r="J53" t="s">
+        <v>423</v>
+      </c>
+      <c r="K53" t="s">
+        <v>424</v>
+      </c>
+      <c r="L53" t="s">
+        <v>425</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>382</v>
+      </c>
+      <c r="O53" t="s">
+        <v>106</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>418</v>
+      </c>
+      <c r="X53" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>427</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>428</v>
+      </c>
+      <c r="J54" t="s">
+        <v>429</v>
+      </c>
+      <c r="K54" t="s">
+        <v>430</v>
+      </c>
+      <c r="L54" t="s">
+        <v>431</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>382</v>
+      </c>
+      <c r="O54" t="s">
+        <v>164</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>418</v>
+      </c>
+      <c r="X54" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>433</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>434</v>
+      </c>
+      <c r="J55" t="s">
+        <v>435</v>
+      </c>
+      <c r="K55" t="s">
+        <v>436</v>
+      </c>
+      <c r="L55" t="s">
+        <v>437</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>382</v>
+      </c>
+      <c r="O55" t="s">
+        <v>164</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>438</v>
+      </c>
+      <c r="X55" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>441</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>442</v>
+      </c>
+      <c r="J56" t="s">
+        <v>443</v>
+      </c>
+      <c r="K56" t="s">
+        <v>444</v>
+      </c>
+      <c r="L56" t="s">
+        <v>445</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>446</v>
+      </c>
+      <c r="O56" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>418</v>
+      </c>
+      <c r="X56" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>448</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>449</v>
+      </c>
+      <c r="J57" t="s">
+        <v>450</v>
+      </c>
+      <c r="K57" t="s">
+        <v>451</v>
+      </c>
+      <c r="L57" t="s">
+        <v>452</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>446</v>
+      </c>
+      <c r="O57" t="s">
+        <v>123</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>453</v>
+      </c>
+      <c r="X57" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>456</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>457</v>
+      </c>
+      <c r="J58" t="s">
+        <v>458</v>
+      </c>
+      <c r="K58" t="s">
+        <v>459</v>
+      </c>
+      <c r="L58" t="s">
+        <v>460</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>446</v>
+      </c>
+      <c r="O58" t="s">
+        <v>164</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>461</v>
+      </c>
+      <c r="X58" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>464</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>465</v>
+      </c>
+      <c r="J59" t="s">
+        <v>466</v>
+      </c>
+      <c r="K59" t="s">
+        <v>467</v>
+      </c>
+      <c r="L59" t="s">
+        <v>468</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>446</v>
+      </c>
+      <c r="O59" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>469</v>
+      </c>
+      <c r="X59" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>472</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>473</v>
+      </c>
+      <c r="J60" t="s">
+        <v>474</v>
+      </c>
+      <c r="K60" t="s">
+        <v>475</v>
+      </c>
+      <c r="L60" t="s">
+        <v>476</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>477</v>
+      </c>
+      <c r="O60" t="s">
+        <v>52</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>478</v>
+      </c>
+      <c r="X60" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>481</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>482</v>
+      </c>
+      <c r="J61" t="s">
+        <v>483</v>
+      </c>
+      <c r="K61" t="s">
+        <v>484</v>
+      </c>
+      <c r="L61" t="s">
+        <v>485</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>477</v>
+      </c>
+      <c r="O61" t="s">
+        <v>106</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>486</v>
+      </c>
+      <c r="X61" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>66170</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>489</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>490</v>
+      </c>
+      <c r="J62" t="s">
+        <v>491</v>
+      </c>
+      <c r="K62" t="s">
+        <v>492</v>
+      </c>
+      <c r="L62" t="s">
+        <v>493</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>477</v>
+      </c>
+      <c r="O62" t="s">
+        <v>164</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>478</v>
+      </c>
+      <c r="X62" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>
